--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-abra-top-by-best-speed.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-abra-top-by-best-speed.xlsx
@@ -50,7 +50,7 @@
     <t>170000</t>
   </si>
   <si>
-    <t>8 ч. 32 мин. 4 сек.</t>
+    <t>8 ч. 32 мин. 04 сек.</t>
   </si>
   <si>
     <t>2</t>
@@ -86,7 +86,7 @@
     <t>sorrovv</t>
   </si>
   <si>
-    <t>143 ч. 8 мин. 15 сек.</t>
+    <t>143 ч. 08 мин. 15 сек.</t>
   </si>
   <si>
     <t>6</t>
@@ -104,7 +104,7 @@
     <t>ToNick</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 12 сек.</t>
+    <t>6 ч. 06 мин. 12 сек.</t>
   </si>
   <si>
     <t>Виталька</t>
@@ -164,7 +164,7 @@
     <t>Алина_</t>
   </si>
   <si>
-    <t>17 ч. 0 мин. 57 сек.</t>
+    <t>17 ч. 00 мин. 57 сек.</t>
   </si>
   <si>
     <t>15–16</t>
@@ -179,7 +179,7 @@
     <t>Convicted</t>
   </si>
   <si>
-    <t>7 ч. 8 мин. 11 сек.</t>
+    <t>7 ч. 08 мин. 11 сек.</t>
   </si>
   <si>
     <t>17</t>
@@ -188,7 +188,7 @@
     <t>Fudo</t>
   </si>
   <si>
-    <t>2 ч. 15 мин. 0 сек.</t>
+    <t>2 ч. 15 мин. 00 сек.</t>
   </si>
   <si>
     <t>18</t>
@@ -287,7 +287,7 @@
     <t>Пичалька</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 24 сек.</t>
+    <t>2 ч. 04 мин. 24 сек.</t>
   </si>
   <si>
     <t>30</t>
@@ -296,7 +296,7 @@
     <t>КлавоЕд</t>
   </si>
   <si>
-    <t>48 ч. 1 мин. 55 сек.</t>
+    <t>48 ч. 01 мин. 55 сек.</t>
   </si>
   <si>
     <t>31</t>
@@ -305,7 +305,7 @@
     <t>etojan</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 27 сек.</t>
+    <t>1 ч. 02 мин. 27 сек.</t>
   </si>
   <si>
     <t>32–33</t>
@@ -347,7 +347,7 @@
     <t>AngelOfDream</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 59 сек.</t>
+    <t>1 ч. 04 мин. 59 сек.</t>
   </si>
   <si>
     <t>37–38</t>
@@ -389,7 +389,7 @@
     <t>Pelagiad</t>
   </si>
   <si>
-    <t>4 ч. 7 мин. 55 сек.</t>
+    <t>4 ч. 07 мин. 55 сек.</t>
   </si>
   <si>
     <t>42</t>
@@ -425,7 +425,7 @@
     <t>ant1k</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 35 сек.</t>
+    <t>2 ч. 05 мин. 35 сек.</t>
   </si>
   <si>
     <t>46</t>
@@ -434,7 +434,7 @@
     <t>nonstop_</t>
   </si>
   <si>
-    <t>2 ч. 59 мин. 9 сек.</t>
+    <t>2 ч. 59 мин. 09 сек.</t>
   </si>
   <si>
     <t>47</t>
@@ -467,7 +467,7 @@
     <t>sneg_jr</t>
   </si>
   <si>
-    <t>7 ч. 14 мин. 8 сек.</t>
+    <t>7 ч. 14 мин. 08 сек.</t>
   </si>
   <si>
     <t>51</t>
@@ -476,7 +476,7 @@
     <t>Лень</t>
   </si>
   <si>
-    <t>7 ч. 49 мин. 2 сек.</t>
+    <t>7 ч. 49 мин. 02 сек.</t>
   </si>
   <si>
     <t>52</t>
@@ -518,7 +518,7 @@
     <t>AlexUnder</t>
   </si>
   <si>
-    <t>9 ч. 8 мин. 16 сек.</t>
+    <t>9 ч. 08 мин. 16 сек.</t>
   </si>
   <si>
     <t>57</t>
@@ -551,7 +551,7 @@
     <t>Дело_в_шляпе</t>
   </si>
   <si>
-    <t>38 ч. 1 мин. 52 сек.</t>
+    <t>38 ч. 01 мин. 52 сек.</t>
   </si>
   <si>
     <t>61</t>
@@ -560,7 +560,7 @@
     <t>madinko</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 13 сек.</t>
+    <t>2 ч. 04 мин. 13 сек.</t>
   </si>
   <si>
     <t>62</t>
@@ -569,7 +569,7 @@
     <t>Trafalgar_Law</t>
   </si>
   <si>
-    <t>1 ч. 16 мин. 6 сек.</t>
+    <t>1 ч. 16 мин. 06 сек.</t>
   </si>
   <si>
     <t>63–65</t>
@@ -578,13 +578,13 @@
     <t>lazy</t>
   </si>
   <si>
-    <t>1 ч. 34 мин. 5 сек.</t>
+    <t>1 ч. 34 мин. 05 сек.</t>
   </si>
   <si>
     <t>proximo39</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 10 сек.</t>
+    <t>4 ч. 00 мин. 10 сек.</t>
   </si>
   <si>
     <t>KOSTYA410</t>
@@ -623,7 +623,7 @@
     <t>firelly</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 11 сек.</t>
+    <t>1 ч. 06 мин. 11 сек.</t>
   </si>
   <si>
     <t>70</t>
@@ -632,7 +632,7 @@
     <t>_Nicole_</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 28 сек.</t>
+    <t>5 ч. 06 мин. 28 сек.</t>
   </si>
   <si>
     <t>71</t>
@@ -650,7 +650,7 @@
     <t>Explorerpro</t>
   </si>
   <si>
-    <t>1 ч. 21 мин. 2 сек.</t>
+    <t>1 ч. 21 мин. 02 сек.</t>
   </si>
   <si>
     <t>Крам</t>
@@ -662,7 +662,7 @@
     <t>Maire</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 21 сек.</t>
+    <t>3 ч. 03 мин. 21 сек.</t>
   </si>
   <si>
     <t>PROcent</t>
@@ -689,7 +689,7 @@
     <t>Александр88</t>
   </si>
   <si>
-    <t>7 ч. 48 мин. 1 сек.</t>
+    <t>7 ч. 48 мин. 01 сек.</t>
   </si>
   <si>
     <t>79</t>
@@ -707,7 +707,7 @@
     <t>-FORCE-</t>
   </si>
   <si>
-    <t>12 ч. 0 мин. 38 сек.</t>
+    <t>12 ч. 00 мин. 38 сек.</t>
   </si>
   <si>
     <t>81</t>
@@ -731,7 +731,7 @@
     <t>_Хантер_</t>
   </si>
   <si>
-    <t>1 ч. 16 мин. 2 сек.</t>
+    <t>1 ч. 16 мин. 02 сек.</t>
   </si>
   <si>
     <t>84–87</t>
@@ -740,7 +740,7 @@
     <t>Коретай</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 20 сек.</t>
+    <t>1 ч. 06 мин. 20 сек.</t>
   </si>
   <si>
     <t>libertadore</t>
@@ -758,7 +758,7 @@
     <t>Maksuta</t>
   </si>
   <si>
-    <t>20 ч. 10 мин. 8 сек.</t>
+    <t>20 ч. 10 мин. 08 сек.</t>
   </si>
   <si>
     <t>88–89</t>
@@ -782,7 +782,7 @@
     <t>ПЕРЖО</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 12 сек.</t>
+    <t>3 ч. 08 мин. 12 сек.</t>
   </si>
   <si>
     <t>Guillentes</t>
@@ -830,13 +830,13 @@
     <t>Batterc</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 18 сек.</t>
+    <t>1 ч. 09 мин. 18 сек.</t>
   </si>
   <si>
     <t>Flerik</t>
   </si>
   <si>
-    <t>2 ч. 56 мин. 1 сек.</t>
+    <t>2 ч. 56 мин. 01 сек.</t>
   </si>
   <si>
     <t>98–99</t>
@@ -860,7 +860,7 @@
     <t>TypeError</t>
   </si>
   <si>
-    <t>7 ч. 35 мин. 5 сек.</t>
+    <t>7 ч. 35 мин. 05 сек.</t>
   </si>
   <si>
     <t>Переборыч</t>
@@ -875,7 +875,7 @@
     <t>Sergey_Ch</t>
   </si>
   <si>
-    <t>22 ч. 37 мин. 2 сек.</t>
+    <t>22 ч. 37 мин. 02 сек.</t>
   </si>
   <si>
     <t>103–104</t>
@@ -890,7 +890,7 @@
     <t>задумчивый</t>
   </si>
   <si>
-    <t>13 ч. 0 мин. 49 сек.</t>
+    <t>13 ч. 00 мин. 49 сек.</t>
   </si>
   <si>
     <t>105</t>
@@ -899,7 +899,7 @@
     <t>AcidMan</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 20 сек.</t>
+    <t>3 ч. 07 мин. 20 сек.</t>
   </si>
   <si>
     <t>106</t>
@@ -968,7 +968,7 @@
     <t>nebovluje</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 57 сек.</t>
+    <t>1 ч. 05 мин. 57 сек.</t>
   </si>
   <si>
     <t>114</t>
@@ -977,7 +977,7 @@
     <t>Silvelu</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 30 сек.</t>
+    <t>1 ч. 04 мин. 30 сек.</t>
   </si>
   <si>
     <t>115</t>
@@ -995,7 +995,7 @@
     <t>-Wanted-</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 33 сек.</t>
+    <t>1 ч. 04 мин. 33 сек.</t>
   </si>
   <si>
     <t>117–118</t>
@@ -1010,7 +1010,7 @@
     <t>a_mikhaylov</t>
   </si>
   <si>
-    <t>5 ч. 15 мин. 5 сек.</t>
+    <t>5 ч. 15 мин. 05 сек.</t>
   </si>
   <si>
     <t>119</t>
@@ -1028,7 +1028,7 @@
     <t>Квак</t>
   </si>
   <si>
-    <t>3 ч. 13 мин. 0 сек.</t>
+    <t>3 ч. 13 мин. 00 сек.</t>
   </si>
   <si>
     <t>ИльдарВолжский</t>
@@ -1064,13 +1064,13 @@
     <t>qw10fing</t>
   </si>
   <si>
-    <t>2 ч. 40 мин. 9 сек.</t>
+    <t>2 ч. 40 мин. 09 сек.</t>
   </si>
   <si>
     <t>Garmonica</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 30 сек.</t>
+    <t>6 ч. 07 мин. 30 сек.</t>
   </si>
   <si>
     <t>127</t>
@@ -1079,7 +1079,7 @@
     <t>velocipede</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 1 сек.</t>
+    <t>3 ч. 01 мин. 01 сек.</t>
   </si>
   <si>
     <t>128–129</t>
@@ -1088,7 +1088,7 @@
     <t>Cheers</t>
   </si>
   <si>
-    <t>1 ч. 12 мин. 8 сек.</t>
+    <t>1 ч. 12 мин. 08 сек.</t>
   </si>
   <si>
     <t>marinka19</t>
@@ -1118,7 +1118,7 @@
     <t>Pastor_nak</t>
   </si>
   <si>
-    <t>1 ч. 18 мин. 1 сек.</t>
+    <t>1 ч. 18 мин. 01 сек.</t>
   </si>
   <si>
     <t>iPitbull</t>
@@ -1169,7 +1169,7 @@
     <t>petzsch</t>
   </si>
   <si>
-    <t>1 ч. 55 мин. 3 сек.</t>
+    <t>1 ч. 55 мин. 03 сек.</t>
   </si>
   <si>
     <t>DVRazor</t>
@@ -1208,7 +1208,7 @@
     <t>Велимира</t>
   </si>
   <si>
-    <t>44 ч. 7 мин. 41 сек.</t>
+    <t>44 ч. 07 мин. 41 сек.</t>
   </si>
   <si>
     <t>146–148</t>
@@ -1259,13 +1259,13 @@
     <t>spoNS</t>
   </si>
   <si>
-    <t>7 ч. 4 мин. 11 сек.</t>
+    <t>7 ч. 04 мин. 11 сек.</t>
   </si>
   <si>
     <t>Hold_Tight</t>
   </si>
   <si>
-    <t>7 ч. 24 мин. 3 сек.</t>
+    <t>7 ч. 24 мин. 03 сек.</t>
   </si>
   <si>
     <t>154–158</t>
@@ -1313,7 +1313,7 @@
     <t>vIRwO</t>
   </si>
   <si>
-    <t>18 ч. 22 мин. 0 сек.</t>
+    <t>18 ч. 22 мин. 00 сек.</t>
   </si>
   <si>
     <t>161–163</t>
@@ -1322,7 +1322,7 @@
     <t>Adjery</t>
   </si>
   <si>
-    <t>7 ч. 6 мин. 29 сек.</t>
+    <t>7 ч. 06 мин. 29 сек.</t>
   </si>
   <si>
     <t>puchkarito</t>
@@ -1349,7 +1349,7 @@
     <t>dsdt</t>
   </si>
   <si>
-    <t>6 ч. 37 мин. 3 сек.</t>
+    <t>6 ч. 37 мин. 03 сек.</t>
   </si>
   <si>
     <t>166</t>
@@ -1358,7 +1358,7 @@
     <t>Satory</t>
   </si>
   <si>
-    <t>38 ч. 4 мин. 9 сек.</t>
+    <t>38 ч. 04 мин. 09 сек.</t>
   </si>
   <si>
     <t>167–169</t>
@@ -1367,13 +1367,13 @@
     <t>_Akamoe_</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 7 сек.</t>
+    <t>3 ч. 08 мин. 07 сек.</t>
   </si>
   <si>
     <t>HeyJoe</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 13 сек.</t>
+    <t>3 ч. 05 мин. 13 сек.</t>
   </si>
   <si>
     <t>Jon31</t>
@@ -1394,7 +1394,7 @@
     <t>vafli</t>
   </si>
   <si>
-    <t>1 ч. 30 мин. 7 сек.</t>
+    <t>1 ч. 30 мин. 07 сек.</t>
   </si>
   <si>
     <t>Dj_Hard</t>
@@ -1421,7 +1421,7 @@
     <t>ТОМА-АТОМНАЯ</t>
   </si>
   <si>
-    <t>32 ч. 40 мин. 9 сек.</t>
+    <t>32 ч. 40 мин. 09 сек.</t>
   </si>
   <si>
     <t>176–178</t>
@@ -1442,7 +1442,7 @@
     <t>Hovga</t>
   </si>
   <si>
-    <t>10 ч. 41 мин. 9 сек.</t>
+    <t>10 ч. 41 мин. 09 сек.</t>
   </si>
   <si>
     <t>179</t>
@@ -1466,19 +1466,19 @@
     <t>Кинолог</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 0 сек.</t>
+    <t>2 ч. 02 мин. 00 сек.</t>
   </si>
   <si>
     <t>саша</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 16 сек.</t>
+    <t>2 ч. 04 мин. 16 сек.</t>
   </si>
   <si>
     <t>die-hard</t>
   </si>
   <si>
-    <t>7 ч. 6 мин. 31 сек.</t>
+    <t>7 ч. 06 мин. 31 сек.</t>
   </si>
   <si>
     <t>Loyaluna</t>
@@ -1499,7 +1499,7 @@
     <t>Defaul</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 22 сек.</t>
+    <t>2 ч. 02 мин. 22 сек.</t>
   </si>
   <si>
     <t>Leu</t>
@@ -1517,7 +1517,7 @@
     <t>KiD2</t>
   </si>
   <si>
-    <t>12 ч. 6 мин. 23 сек.</t>
+    <t>12 ч. 06 мин. 23 сек.</t>
   </si>
   <si>
     <t>190–192</t>
@@ -1547,7 +1547,7 @@
     <t>Bolot</t>
   </si>
   <si>
-    <t>1 ч. 39 мин. 5 сек.</t>
+    <t>1 ч. 39 мин. 05 сек.</t>
   </si>
   <si>
     <t>alanen</t>
@@ -1583,7 +1583,7 @@
     <t>Mediator</t>
   </si>
   <si>
-    <t>9 ч. 7 мин. 43 сек.</t>
+    <t>9 ч. 07 мин. 43 сек.</t>
   </si>
   <si>
     <t>199–200</t>
@@ -1598,7 +1598,7 @@
     <t>Леоня</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 57 сек.</t>
+    <t>6 ч. 06 мин. 57 сек.</t>
   </si>
   <si>
     <t>201</t>
@@ -1616,7 +1616,7 @@
     <t>-Advanced-</t>
   </si>
   <si>
-    <t>1 ч. 43 мин. 5 сек.</t>
+    <t>1 ч. 43 мин. 05 сек.</t>
   </si>
   <si>
     <t>xgr</t>
@@ -1628,7 +1628,7 @@
     <t>kostyagordyaev</t>
   </si>
   <si>
-    <t>12 ч. 57 мин. 6 сек.</t>
+    <t>12 ч. 57 мин. 06 сек.</t>
   </si>
   <si>
     <t>trup225</t>
@@ -1640,7 +1640,7 @@
     <t>InsydeR</t>
   </si>
   <si>
-    <t>19 ч. 3 мин. 29 сек.</t>
+    <t>19 ч. 03 мин. 29 сек.</t>
   </si>
   <si>
     <t>207–209</t>
@@ -1670,7 +1670,7 @@
     <t>Кадий</t>
   </si>
   <si>
-    <t>1 ч. 34 мин. 8 сек.</t>
+    <t>1 ч. 34 мин. 08 сек.</t>
   </si>
   <si>
     <t>211–212</t>
@@ -1694,7 +1694,7 @@
     <t>n1Riper</t>
   </si>
   <si>
-    <t>2 ч. 32 мин. 5 сек.</t>
+    <t>2 ч. 32 мин. 05 сек.</t>
   </si>
   <si>
     <t>Cat_Lady</t>
@@ -1706,7 +1706,7 @@
     <t>serge-kruf</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 9 сек.</t>
+    <t>3 ч. 05 мин. 09 сек.</t>
   </si>
   <si>
     <t>216–220</t>
@@ -1739,7 +1739,7 @@
     <t>albert-</t>
   </si>
   <si>
-    <t>47 ч. 4 мин. 59 сек.</t>
+    <t>47 ч. 04 мин. 59 сек.</t>
   </si>
   <si>
     <t>221–224</t>
@@ -1763,7 +1763,7 @@
     <t>awefork</t>
   </si>
   <si>
-    <t>6 ч. 34 мин. 3 сек.</t>
+    <t>6 ч. 34 мин. 03 сек.</t>
   </si>
   <si>
     <t>225–226</t>
@@ -1772,7 +1772,7 @@
     <t>Nowhereman42nd</t>
   </si>
   <si>
-    <t>14 ч. 5 мин. 24 сек.</t>
+    <t>14 ч. 05 мин. 24 сек.</t>
   </si>
   <si>
     <t>паукан</t>
@@ -1835,7 +1835,7 @@
     <t>-LVV-</t>
   </si>
   <si>
-    <t>32 ч. 22 мин. 7 сек.</t>
+    <t>32 ч. 22 мин. 07 сек.</t>
   </si>
   <si>
     <t>235–240</t>
@@ -1844,7 +1844,7 @@
     <t>Boost</t>
   </si>
   <si>
-    <t>2 ч. 54 мин. 1 сек.</t>
+    <t>2 ч. 54 мин. 01 сек.</t>
   </si>
   <si>
     <t>ToCMan</t>
@@ -1874,7 +1874,7 @@
     <t>Рыжая_</t>
   </si>
   <si>
-    <t>31 ч. 6 мин. 36 сек.</t>
+    <t>31 ч. 06 мин. 36 сек.</t>
   </si>
   <si>
     <t>241–246</t>
@@ -1889,13 +1889,13 @@
     <t>MyxaMopxD</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 8 сек.</t>
+    <t>2 ч. 00 мин. 08 сек.</t>
   </si>
   <si>
     <t>cybranker</t>
   </si>
   <si>
-    <t>6 ч. 5 мин. 26 сек.</t>
+    <t>6 ч. 05 мин. 26 сек.</t>
   </si>
   <si>
     <t>_600_</t>
@@ -1940,13 +1940,13 @@
     <t>ajrcbp</t>
   </si>
   <si>
-    <t>3 ч. 23 мин. 8 сек.</t>
+    <t>3 ч. 23 мин. 08 сек.</t>
   </si>
   <si>
     <t>Воланд</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 55 сек.</t>
+    <t>3 ч. 02 мин. 55 сек.</t>
   </si>
   <si>
     <t>sav1</t>
@@ -1976,7 +1976,7 @@
     <t>Thtas</t>
   </si>
   <si>
-    <t>2 ч. 41 мин. 4 сек.</t>
+    <t>2 ч. 41 мин. 04 сек.</t>
   </si>
   <si>
     <t>Abu_Abu</t>
@@ -1991,7 +1991,7 @@
     <t>siplo</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 23 сек.</t>
+    <t>2 ч. 09 мин. 23 сек.</t>
   </si>
   <si>
     <t>treexH</t>
@@ -2024,13 +2024,13 @@
     <t>SEFER</t>
   </si>
   <si>
-    <t>11 ч. 19 мин. 2 сек.</t>
+    <t>11 ч. 19 мин. 02 сек.</t>
   </si>
   <si>
     <t>akinojes</t>
   </si>
   <si>
-    <t>11 ч. 9 мин. 40 сек.</t>
+    <t>11 ч. 09 мин. 40 сек.</t>
   </si>
   <si>
     <t>Бэтмен</t>
@@ -2060,7 +2060,7 @@
     <t>Попутчик</t>
   </si>
   <si>
-    <t>1 ч. 53 мин. 8 сек.</t>
+    <t>1 ч. 53 мин. 08 сек.</t>
   </si>
   <si>
     <t>Supersonic</t>
@@ -2087,7 +2087,7 @@
     <t>Lelick</t>
   </si>
   <si>
-    <t>11 ч. 48 мин. 5 сек.</t>
+    <t>11 ч. 48 мин. 05 сек.</t>
   </si>
   <si>
     <t>272–275</t>
@@ -2102,7 +2102,7 @@
     <t>buerak</t>
   </si>
   <si>
-    <t>2 ч. 57 мин. 7 сек.</t>
+    <t>2 ч. 57 мин. 07 сек.</t>
   </si>
   <si>
     <t>Аленка</t>
@@ -2114,7 +2114,7 @@
     <t>Шизонт</t>
   </si>
   <si>
-    <t>52 ч. 58 мин. 6 сек.</t>
+    <t>52 ч. 58 мин. 06 сек.</t>
   </si>
   <si>
     <t>276</t>
@@ -2138,13 +2138,13 @@
     <t>pashkinson</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 20 сек.</t>
+    <t>3 ч. 08 мин. 20 сек.</t>
   </si>
   <si>
     <t>Amateur_</t>
   </si>
   <si>
-    <t>18 ч. 4 мин. 55 сек.</t>
+    <t>18 ч. 04 мин. 55 сек.</t>
   </si>
   <si>
     <t>280–282</t>
@@ -2213,7 +2213,7 @@
     <t>Алуний</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 0 сек.</t>
+    <t>2 ч. 07 мин. 00 сек.</t>
   </si>
   <si>
     <t>Sleepy_Fox</t>
@@ -2228,7 +2228,7 @@
     <t>Малышка_Эн</t>
   </si>
   <si>
-    <t>1 ч. 40 мин. 2 сек.</t>
+    <t>1 ч. 40 мин. 02 сек.</t>
   </si>
   <si>
     <t>Mortal_Angel</t>
@@ -2273,7 +2273,7 @@
     <t>Лии</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 19 сек.</t>
+    <t>6 ч. 09 мин. 19 сек.</t>
   </si>
   <si>
     <t>haos2100</t>
@@ -2348,7 +2348,7 @@
     <t>kernal_debuger</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 35 сек.</t>
+    <t>2 ч. 00 мин. 35 сек.</t>
   </si>
   <si>
     <t>NIN</t>
@@ -2393,13 +2393,13 @@
     <t>Oknevor</t>
   </si>
   <si>
-    <t>2 ч. 41 мин. 7 сек.</t>
+    <t>2 ч. 41 мин. 07 сек.</t>
   </si>
   <si>
     <t>salser1982</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 38 сек.</t>
+    <t>4 ч. 09 мин. 38 сек.</t>
   </si>
   <si>
     <t>HeLLios</t>
@@ -2414,13 +2414,13 @@
     <t>DOGS</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 1 сек.</t>
+    <t>2 ч. 01 мин. 01 сек.</t>
   </si>
   <si>
     <t>Fermmer</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 4 сек.</t>
+    <t>4 ч. 08 мин. 04 сек.</t>
   </si>
   <si>
     <t>MMMAAANNN</t>
@@ -2438,7 +2438,7 @@
     <t>Alkaline</t>
   </si>
   <si>
-    <t>7 ч. 44 мин. 3 сек.</t>
+    <t>7 ч. 44 мин. 03 сек.</t>
   </si>
   <si>
     <t>Берегиня</t>
@@ -2453,13 +2453,13 @@
     <t>Инженер555</t>
   </si>
   <si>
-    <t>1 ч. 48 мин. 7 сек.</t>
+    <t>1 ч. 48 мин. 07 сек.</t>
   </si>
   <si>
     <t>sayanoGOREC</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 18 сек.</t>
+    <t>2 ч. 02 мин. 18 сек.</t>
   </si>
   <si>
     <t>WellMaxT</t>
@@ -2477,7 +2477,7 @@
     <t>Аферист</t>
   </si>
   <si>
-    <t>12 ч. 6 мин. 7 сек.</t>
+    <t>12 ч. 06 мин. 07 сек.</t>
   </si>
   <si>
     <t>newsuslik</t>
@@ -2489,7 +2489,7 @@
     <t>iji</t>
   </si>
   <si>
-    <t>99 ч. 19 мин. 0 сек.</t>
+    <t>99 ч. 19 мин. 00 сек.</t>
   </si>
   <si>
     <t>332–339</t>
@@ -2498,7 +2498,7 @@
     <t>Etoneja</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 6 сек.</t>
+    <t>1 ч. 09 мин. 06 сек.</t>
   </si>
   <si>
     <t>ChisloPi</t>
@@ -2528,13 +2528,13 @@
     <t>draaagon</t>
   </si>
   <si>
-    <t>3 ч. 43 мин. 7 сек.</t>
+    <t>3 ч. 43 мин. 07 сек.</t>
   </si>
   <si>
     <t>_nikki_</t>
   </si>
   <si>
-    <t>12 ч. 5 мин. 52 сек.</t>
+    <t>12 ч. 05 мин. 52 сек.</t>
   </si>
   <si>
     <t>Bombo</t>
@@ -2549,7 +2549,7 @@
     <t>VanDyk</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 50 сек.</t>
+    <t>3 ч. 04 мин. 50 сек.</t>
   </si>
   <si>
     <t>ErickZaltman</t>
@@ -2576,7 +2576,7 @@
     <t>lexa007</t>
   </si>
   <si>
-    <t>5 ч. 3 мин. 1 сек.</t>
+    <t>5 ч. 03 мин. 01 сек.</t>
   </si>
   <si>
     <t>oves</t>
@@ -2591,7 +2591,7 @@
     <t>strengthofgod</t>
   </si>
   <si>
-    <t>1 ч. 43 мин. 6 сек.</t>
+    <t>1 ч. 43 мин. 06 сек.</t>
   </si>
   <si>
     <t>SpeedOfLight</t>
@@ -2621,7 +2621,7 @@
     <t>Realshi</t>
   </si>
   <si>
-    <t>13 ч. 1 мин. 43 сек.</t>
+    <t>13 ч. 01 мин. 43 сек.</t>
   </si>
   <si>
     <t>352–354</t>
@@ -2636,7 +2636,7 @@
     <t>kryto</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 30 сек.</t>
+    <t>2 ч. 09 мин. 30 сек.</t>
   </si>
   <si>
     <t>gosha_bel</t>
@@ -2663,7 +2663,7 @@
     <t>KinDK</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 45 сек.</t>
+    <t>2 ч. 02 мин. 45 сек.</t>
   </si>
   <si>
     <t>aislyn</t>
@@ -2714,7 +2714,7 @@
     <t>Alsim</t>
   </si>
   <si>
-    <t>22 ч. 6 мин. 55 сек.</t>
+    <t>22 ч. 06 мин. 55 сек.</t>
   </si>
   <si>
     <t>366–368</t>
@@ -2735,7 +2735,7 @@
     <t>Pipl</t>
   </si>
   <si>
-    <t>20 ч. 22 мин. 7 сек.</t>
+    <t>20 ч. 22 мин. 07 сек.</t>
   </si>
   <si>
     <t>369–371</t>
@@ -2744,7 +2744,7 @@
     <t>Uraniadz</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 56 сек.</t>
+    <t>3 ч. 07 мин. 56 сек.</t>
   </si>
   <si>
     <t>Kenichi</t>
@@ -2756,7 +2756,7 @@
     <t>snov</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 3 сек.</t>
+    <t>9 ч. 04 мин. 03 сек.</t>
   </si>
   <si>
     <t>372–374</t>
@@ -2771,7 +2771,7 @@
     <t>Игорка</t>
   </si>
   <si>
-    <t>15 ч. 26 мин. 8 сек.</t>
+    <t>15 ч. 26 мин. 08 сек.</t>
   </si>
   <si>
     <t>Ilya666</t>
@@ -2816,19 +2816,19 @@
     <t>zevsman</t>
   </si>
   <si>
-    <t>7 ч. 37 мин. 4 сек.</t>
+    <t>7 ч. 37 мин. 04 сек.</t>
   </si>
   <si>
     <t>турандот</t>
   </si>
   <si>
-    <t>10 ч. 29 мин. 4 сек.</t>
+    <t>10 ч. 29 мин. 04 сек.</t>
   </si>
   <si>
     <t>Gardenstone</t>
   </si>
   <si>
-    <t>19 ч. 5 мин. 20 сек.</t>
+    <t>19 ч. 05 мин. 20 сек.</t>
   </si>
   <si>
     <t>383–386</t>
@@ -2849,7 +2849,7 @@
     <t>ail</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 26 сек.</t>
+    <t>4 ч. 05 мин. 26 сек.</t>
   </si>
   <si>
     <t>dogs_life</t>
@@ -2870,19 +2870,19 @@
     <t>bolbol</t>
   </si>
   <si>
-    <t>4 ч. 54 мин. 6 сек.</t>
+    <t>4 ч. 54 мин. 06 сек.</t>
   </si>
   <si>
     <t>winix</t>
   </si>
   <si>
-    <t>7 ч. 29 мин. 5 сек.</t>
+    <t>7 ч. 29 мин. 05 сек.</t>
   </si>
   <si>
     <t>takobus</t>
   </si>
   <si>
-    <t>7 ч. 14 мин. 4 сек.</t>
+    <t>7 ч. 14 мин. 04 сек.</t>
   </si>
   <si>
     <t>Pasha18</t>
@@ -2912,7 +2912,7 @@
     <t>swik</t>
   </si>
   <si>
-    <t>2 ч. 26 мин. 1 сек.</t>
+    <t>2 ч. 26 мин. 01 сек.</t>
   </si>
   <si>
     <t>Deleted</t>
@@ -2933,7 +2933,7 @@
     <t>Днище_грЕбаное</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 58 сек.</t>
+    <t>4 ч. 08 мин. 58 сек.</t>
   </si>
   <si>
     <t>LifeReplica</t>
@@ -2948,7 +2948,7 @@
     <t>suffering</t>
   </si>
   <si>
-    <t>1 ч. 59 мин. 7 сек.</t>
+    <t>1 ч. 59 мин. 07 сек.</t>
   </si>
   <si>
     <t>Telefunkenist</t>
@@ -2966,7 +2966,7 @@
     <t>Natalochka</t>
   </si>
   <si>
-    <t>5 ч. 45 мин. 7 сек.</t>
+    <t>5 ч. 45 мин. 07 сек.</t>
   </si>
   <si>
     <t>chat</t>
@@ -2978,7 +2978,7 @@
     <t>Старец</t>
   </si>
   <si>
-    <t>17 ч. 8 мин. 30 сек.</t>
+    <t>17 ч. 08 мин. 30 сек.</t>
   </si>
   <si>
     <t>405–409</t>
@@ -3011,7 +3011,7 @@
     <t>fishca</t>
   </si>
   <si>
-    <t>20 ч. 37 мин. 8 сек.</t>
+    <t>20 ч. 37 мин. 08 сек.</t>
   </si>
   <si>
     <t>410–415</t>
@@ -3038,7 +3038,7 @@
     <t>Рустамко</t>
   </si>
   <si>
-    <t>4 ч. 55 мин. 1 сек.</t>
+    <t>4 ч. 55 мин. 01 сек.</t>
   </si>
   <si>
     <t>Wassja</t>
@@ -3086,7 +3086,7 @@
     <t>Analgin7</t>
   </si>
   <si>
-    <t>2 ч. 53 мин. 0 сек.</t>
+    <t>2 ч. 53 мин. 00 сек.</t>
   </si>
   <si>
     <t>Insane_Grinder</t>
@@ -3116,7 +3116,7 @@
     <t>rovno</t>
   </si>
   <si>
-    <t>13 ч. 42 мин. 7 сек.</t>
+    <t>13 ч. 42 мин. 07 сек.</t>
   </si>
   <si>
     <t>426–430</t>
@@ -3131,7 +3131,7 @@
     <t>flyer_diktor</t>
   </si>
   <si>
-    <t>5 ч. 58 мин. 4 сек.</t>
+    <t>5 ч. 58 мин. 04 сек.</t>
   </si>
   <si>
     <t>Scarpion</t>
@@ -3206,7 +3206,7 @@
     <t>V_Alexey</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 12 сек.</t>
+    <t>3 ч. 04 мин. 12 сек.</t>
   </si>
   <si>
     <t>Mmaark</t>
@@ -3224,7 +3224,7 @@
     <t>kcennia</t>
   </si>
   <si>
-    <t>30 ч. 44 мин. 8 сек.</t>
+    <t>30 ч. 44 мин. 08 сек.</t>
   </si>
   <si>
     <t>442–445</t>
@@ -3239,19 +3239,19 @@
     <t>wheeeL</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 24 сек.</t>
+    <t>2 ч. 07 мин. 24 сек.</t>
   </si>
   <si>
     <t>Ямастер</t>
   </si>
   <si>
-    <t>17 ч. 2 мин. 9 сек.</t>
+    <t>17 ч. 02 мин. 09 сек.</t>
   </si>
   <si>
     <t>Катушка</t>
   </si>
   <si>
-    <t>21 ч. 26 мин. 3 сек.</t>
+    <t>21 ч. 26 мин. 03 сек.</t>
   </si>
   <si>
     <t>446–447</t>
@@ -3293,7 +3293,7 @@
     <t>Кибертаксист</t>
   </si>
   <si>
-    <t>4 ч. 59 мин. 0 сек.</t>
+    <t>4 ч. 59 мин. 00 сек.</t>
   </si>
   <si>
     <t>452</t>
@@ -3314,7 +3314,7 @@
     <t>Gal04ka</t>
   </si>
   <si>
-    <t>2 ч. 35 мин. 7 сек.</t>
+    <t>2 ч. 35 мин. 07 сек.</t>
   </si>
   <si>
     <t>Voldik</t>
@@ -3374,13 +3374,13 @@
     <t>Alex_Volo</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 43 сек.</t>
+    <t>2 ч. 09 мин. 43 сек.</t>
   </si>
   <si>
     <t>SpazZm</t>
   </si>
   <si>
-    <t>3 ч. 19 мин. 0 сек.</t>
+    <t>3 ч. 19 мин. 00 сек.</t>
   </si>
   <si>
     <t>465–466</t>
@@ -3458,7 +3458,7 @@
     <t>fedyagor</t>
   </si>
   <si>
-    <t>4 ч. 29 мин. 5 сек.</t>
+    <t>4 ч. 29 мин. 05 сек.</t>
   </si>
   <si>
     <t>вАлчица</t>
@@ -3512,7 +3512,7 @@
     <t>valula</t>
   </si>
   <si>
-    <t>46 ч. 36 мин. 1 сек.</t>
+    <t>46 ч. 36 мин. 01 сек.</t>
   </si>
   <si>
     <t>485</t>
@@ -3521,7 +3521,7 @@
     <t>_ulanochka</t>
   </si>
   <si>
-    <t>1 ч. 48 мин. 5 сек.</t>
+    <t>1 ч. 48 мин. 05 сек.</t>
   </si>
   <si>
     <t>486–491</t>
@@ -3530,7 +3530,7 @@
     <t>бо1</t>
   </si>
   <si>
-    <t>2 ч. 29 мин. 2 сек.</t>
+    <t>2 ч. 29 мин. 02 сек.</t>
   </si>
   <si>
     <t>Gosxo_Ruza</t>
@@ -3542,7 +3542,7 @@
     <t>Lexanni</t>
   </si>
   <si>
-    <t>12 ч. 43 мин. 7 сек.</t>
+    <t>12 ч. 43 мин. 07 сек.</t>
   </si>
   <si>
     <t>oleggo</t>
@@ -3560,7 +3560,7 @@
     <t>Numb_kz</t>
   </si>
   <si>
-    <t>16 ч. 22 мин. 5 сек.</t>
+    <t>16 ч. 22 мин. 05 сек.</t>
   </si>
   <si>
     <t>492–499</t>
@@ -3575,7 +3575,7 @@
     <t>Euki</t>
   </si>
   <si>
-    <t>3 ч. 41 мин. 7 сек.</t>
+    <t>3 ч. 41 мин. 07 сек.</t>
   </si>
   <si>
     <t>UPO</t>
@@ -3593,19 +3593,19 @@
     <t>bkozhaev</t>
   </si>
   <si>
-    <t>9 ч. 21 мин. 8 сек.</t>
+    <t>9 ч. 21 мин. 08 сек.</t>
   </si>
   <si>
     <t>Res_Publica</t>
   </si>
   <si>
-    <t>13 ч. 51 мин. 7 сек.</t>
+    <t>13 ч. 51 мин. 07 сек.</t>
   </si>
   <si>
     <t>NordVic</t>
   </si>
   <si>
-    <t>15 ч. 3 мин. 20 сек.</t>
+    <t>15 ч. 03 мин. 20 сек.</t>
   </si>
   <si>
     <t>Drumerspb</t>
@@ -3662,7 +3662,7 @@
     <t>Jeena</t>
   </si>
   <si>
-    <t>18 ч. 19 мин. 0 сек.</t>
+    <t>18 ч. 19 мин. 00 сек.</t>
   </si>
   <si>
     <t>508</t>
@@ -3671,7 +3671,7 @@
     <t>ls_600_hl</t>
   </si>
   <si>
-    <t>5 ч. 46 мин. 9 сек.</t>
+    <t>5 ч. 46 мин. 09 сек.</t>
   </si>
   <si>
     <t>509–513</t>
@@ -3680,19 +3680,19 @@
     <t>baltazar</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 8 сек.</t>
+    <t>2 ч. 08 мин. 08 сек.</t>
   </si>
   <si>
     <t>Elizar</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 16 сек.</t>
+    <t>4 ч. 09 мин. 16 сек.</t>
   </si>
   <si>
     <t>Floopyy</t>
   </si>
   <si>
-    <t>5 ч. 22 мин. 1 сек.</t>
+    <t>5 ч. 22 мин. 01 сек.</t>
   </si>
   <si>
     <t>Pisaka</t>
@@ -3779,7 +3779,7 @@
     <t>caym</t>
   </si>
   <si>
-    <t>6 ч. 35 мин. 1 сек.</t>
+    <t>6 ч. 35 мин. 01 сек.</t>
   </si>
   <si>
     <t>harpique</t>
@@ -3794,7 +3794,7 @@
     <t>sklippy</t>
   </si>
   <si>
-    <t>1 ч. 46 мин. 7 сек.</t>
+    <t>1 ч. 46 мин. 07 сек.</t>
   </si>
   <si>
     <t>suenot</t>
@@ -3806,19 +3806,19 @@
     <t>RebeldeWay</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 52 сек.</t>
+    <t>3 ч. 06 мин. 52 сек.</t>
   </si>
   <si>
     <t>meze</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 10 сек.</t>
+    <t>3 ч. 09 мин. 10 сек.</t>
   </si>
   <si>
     <t>Sonick071</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 27 сек.</t>
+    <t>4 ч. 04 мин. 27 сек.</t>
   </si>
   <si>
     <t>KitsuneSpirit</t>
@@ -3872,7 +3872,7 @@
     <t>Andrey999K</t>
   </si>
   <si>
-    <t>1 ч. 52 мин. 5 сек.</t>
+    <t>1 ч. 52 мин. 05 сек.</t>
   </si>
   <si>
     <t>KimiWRC</t>
@@ -3884,7 +3884,7 @@
     <t>Feliks_Smetana</t>
   </si>
   <si>
-    <t>5 ч. 20 мин. 3 сек.</t>
+    <t>5 ч. 20 мин. 03 сек.</t>
   </si>
   <si>
     <t>540–542</t>
@@ -3908,7 +3908,7 @@
     <t>_kerfoer_</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 46 сек.</t>
+    <t>2 ч. 00 мин. 46 сек.</t>
   </si>
   <si>
     <t>4buRatoR</t>
@@ -3953,7 +3953,7 @@
     <t>denisov7</t>
   </si>
   <si>
-    <t>9 ч. 8 мин. 3 сек.</t>
+    <t>9 ч. 08 мин. 03 сек.</t>
   </si>
   <si>
     <t>ГОЧА</t>
@@ -3986,7 +3986,7 @@
     <t>DcDimon</t>
   </si>
   <si>
-    <t>2 ч. 35 мин. 4 сек.</t>
+    <t>2 ч. 35 мин. 04 сек.</t>
   </si>
   <si>
     <t>Smalllynx</t>
@@ -4001,19 +4001,19 @@
     <t>С_майлик</t>
   </si>
   <si>
-    <t>1 ч. 38 мин. 8 сек.</t>
+    <t>1 ч. 38 мин. 08 сек.</t>
   </si>
   <si>
     <t>Leonid_KTRP</t>
   </si>
   <si>
-    <t>2 ч. 25 мин. 6 сек.</t>
+    <t>2 ч. 25 мин. 06 сек.</t>
   </si>
   <si>
     <t>cal-lek</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 39 сек.</t>
+    <t>3 ч. 02 мин. 39 сек.</t>
   </si>
   <si>
     <t>Irlani</t>
@@ -4046,7 +4046,7 @@
     <t>karl_hungus</t>
   </si>
   <si>
-    <t>1 ч. 46 мин. 1 сек.</t>
+    <t>1 ч. 46 мин. 01 сек.</t>
   </si>
   <si>
     <t>Тираэль</t>
@@ -4088,7 +4088,7 @@
     <t>KiberBot</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 12 сек.</t>
+    <t>2 ч. 00 мин. 12 сек.</t>
   </si>
   <si>
     <t>ZeaLotFeed</t>
@@ -4103,7 +4103,7 @@
     <t>сударь</t>
   </si>
   <si>
-    <t>2 ч. 48 мин. 3 сек.</t>
+    <t>2 ч. 48 мин. 03 сек.</t>
   </si>
   <si>
     <t>ventelt</t>
@@ -4115,13 +4115,13 @@
     <t>hrenovaya_klava</t>
   </si>
   <si>
-    <t>10 ч. 52 мин. 8 сек.</t>
+    <t>10 ч. 52 мин. 08 сек.</t>
   </si>
   <si>
     <t>gosknyaz</t>
   </si>
   <si>
-    <t>109 ч. 2 мин. 54 сек.</t>
+    <t>109 ч. 02 мин. 54 сек.</t>
   </si>
   <si>
     <t>576–578</t>
@@ -4157,13 +4157,13 @@
     <t>ass1982</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 35 сек.</t>
+    <t>4 ч. 00 мин. 35 сек.</t>
   </si>
   <si>
     <t>ay52_bio</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 29 сек.</t>
+    <t>4 ч. 09 мин. 29 сек.</t>
   </si>
   <si>
     <t>Жеваный_Крот</t>
@@ -4184,7 +4184,7 @@
     <t>azukun</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 49 сек.</t>
+    <t>2 ч. 07 мин. 49 сек.</t>
   </si>
   <si>
     <t>Эвелин</t>
@@ -4202,13 +4202,13 @@
     <t>FLb</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 14 сек.</t>
+    <t>4 ч. 03 мин. 14 сек.</t>
   </si>
   <si>
     <t>HellBoy33</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 4 сек.</t>
+    <t>5 ч. 02 мин. 04 сек.</t>
   </si>
   <si>
     <t>Gbit</t>
@@ -4220,7 +4220,7 @@
     <t>keeper555</t>
   </si>
   <si>
-    <t>17 ч. 26 мин. 8 сек.</t>
+    <t>17 ч. 26 мин. 08 сек.</t>
   </si>
   <si>
     <t>591–596</t>
@@ -4325,7 +4325,7 @@
     <t>Nistu</t>
   </si>
   <si>
-    <t>35 ч. 37 мин. 3 сек.</t>
+    <t>35 ч. 37 мин. 03 сек.</t>
   </si>
   <si>
     <t>607–609</t>
@@ -4379,13 +4379,13 @@
     <t>Iuhenio</t>
   </si>
   <si>
-    <t>5 ч. 4 мин. 49 сек.</t>
+    <t>5 ч. 04 мин. 49 сек.</t>
   </si>
   <si>
     <t>vido88</t>
   </si>
   <si>
-    <t>13 ч. 3 мин. 58 сек.</t>
+    <t>13 ч. 03 мин. 58 сек.</t>
   </si>
   <si>
     <t>616–623</t>
@@ -4400,7 +4400,7 @@
     <t>fugas_ananas</t>
   </si>
   <si>
-    <t>1 ч. 45 мин. 9 сек.</t>
+    <t>1 ч. 45 мин. 09 сек.</t>
   </si>
   <si>
     <t>Клавишник</t>
@@ -4463,7 +4463,7 @@
     <t>diskorkl</t>
   </si>
   <si>
-    <t>16 ч. 45 мин. 2 сек.</t>
+    <t>16 ч. 45 мин. 02 сек.</t>
   </si>
   <si>
     <t>628–637</t>
@@ -4472,13 +4472,13 @@
     <t>ябохтыздох</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 16 сек.</t>
+    <t>3 ч. 03 мин. 16 сек.</t>
   </si>
   <si>
     <t>Hell_Knight</t>
   </si>
   <si>
-    <t>2 ч. 14 мин. 2 сек.</t>
+    <t>2 ч. 14 мин. 02 сек.</t>
   </si>
   <si>
     <t>fabulaspb</t>
@@ -4490,7 +4490,7 @@
     <t>Mirion</t>
   </si>
   <si>
-    <t>2 ч. 17 мин. 5 сек.</t>
+    <t>2 ч. 17 мин. 05 сек.</t>
   </si>
   <si>
     <t>КиберАтлет</t>
@@ -4508,7 +4508,7 @@
     <t>совет-солдат</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 40 сек.</t>
+    <t>4 ч. 01 мин. 40 сек.</t>
   </si>
   <si>
     <t>kozinak</t>
@@ -4535,13 +4535,13 @@
     <t>NinaVladi</t>
   </si>
   <si>
-    <t>1 ч. 49 мин. 2 сек.</t>
+    <t>1 ч. 49 мин. 02 сек.</t>
   </si>
   <si>
     <t>ВолкТряпошный</t>
   </si>
   <si>
-    <t>7 ч. 4 мин. 49 сек.</t>
+    <t>7 ч. 04 мин. 49 сек.</t>
   </si>
   <si>
     <t>psv2014</t>
@@ -4592,7 +4592,7 @@
     <t>Jenty</t>
   </si>
   <si>
-    <t>13 ч. 8 мин. 57 сек.</t>
+    <t>13 ч. 08 мин. 57 сек.</t>
   </si>
   <si>
     <t>Hleb_1989</t>
@@ -4619,7 +4619,7 @@
     <t>TuzemooN</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 3 сек.</t>
+    <t>3 ч. 09 мин. 03 сек.</t>
   </si>
   <si>
     <t>XRain</t>
@@ -4634,19 +4634,19 @@
     <t>Tellmeboo</t>
   </si>
   <si>
-    <t>2 ч. 21 мин. 7 сек.</t>
+    <t>2 ч. 21 мин. 07 сек.</t>
   </si>
   <si>
     <t>YaNemnogoTormoz</t>
   </si>
   <si>
-    <t>2 ч. 38 мин. 3 сек.</t>
+    <t>2 ч. 38 мин. 03 сек.</t>
   </si>
   <si>
     <t>ITur</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 29 сек.</t>
+    <t>2 ч. 07 мин. 29 сек.</t>
   </si>
   <si>
     <t>_sad</t>
@@ -4658,13 +4658,13 @@
     <t>Flydee</t>
   </si>
   <si>
-    <t>9 ч. 27 мин. 0 сек.</t>
+    <t>9 ч. 27 мин. 00 сек.</t>
   </si>
   <si>
     <t>BI-FI-Car</t>
   </si>
   <si>
-    <t>12 ч. 3 мин. 47 сек.</t>
+    <t>12 ч. 03 мин. 47 сек.</t>
   </si>
   <si>
     <t>Аурика</t>
@@ -4679,19 +4679,19 @@
     <t>СистемныйАнализ</t>
   </si>
   <si>
-    <t>1 ч. 27 мин. 4 сек.</t>
+    <t>1 ч. 27 мин. 04 сек.</t>
   </si>
   <si>
     <t>Wassjaja</t>
   </si>
   <si>
-    <t>2 ч. 19 мин. 0 сек.</t>
+    <t>2 ч. 19 мин. 00 сек.</t>
   </si>
   <si>
     <t>HappyHardcore</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 54 сек.</t>
+    <t>3 ч. 03 мин. 54 сек.</t>
   </si>
   <si>
     <t>inexpert</t>
@@ -4709,7 +4709,7 @@
     <t>su-35</t>
   </si>
   <si>
-    <t>11 ч. 5 мин. 2 сек.</t>
+    <t>11 ч. 05 мин. 02 сек.</t>
   </si>
   <si>
     <t>Espera</t>
@@ -4736,7 +4736,7 @@
     <t>grpvrp</t>
   </si>
   <si>
-    <t>1 ч. 41 мин. 7 сек.</t>
+    <t>1 ч. 41 мин. 07 сек.</t>
   </si>
   <si>
     <t>lChi</t>
@@ -4760,7 +4760,7 @@
     <t>Alex_fey</t>
   </si>
   <si>
-    <t>8 ч. 5 мин. 50 сек.</t>
+    <t>8 ч. 05 мин. 50 сек.</t>
   </si>
   <si>
     <t>BesX</t>
@@ -4772,7 +4772,7 @@
     <t>вазовик</t>
   </si>
   <si>
-    <t>9 ч. 7 мин. 59 сек.</t>
+    <t>9 ч. 07 мин. 59 сек.</t>
   </si>
   <si>
     <t>clair</t>
@@ -4814,7 +4814,7 @@
     <t>agor</t>
   </si>
   <si>
-    <t>5 ч. 15 мин. 0 сек.</t>
+    <t>5 ч. 15 мин. 00 сек.</t>
   </si>
   <si>
     <t>Exig0</t>
@@ -4841,7 +4841,7 @@
     <t>klausewitz</t>
   </si>
   <si>
-    <t>41 ч. 15 мин. 6 сек.</t>
+    <t>41 ч. 15 мин. 06 сек.</t>
   </si>
   <si>
     <t>687–693</t>
@@ -4868,7 +4868,7 @@
     <t>kibico</t>
   </si>
   <si>
-    <t>5 ч. 39 мин. 4 сек.</t>
+    <t>5 ч. 39 мин. 04 сек.</t>
   </si>
   <si>
     <t>shicotus</t>
@@ -4880,7 +4880,7 @@
     <t>iBumble</t>
   </si>
   <si>
-    <t>13 ч. 7 мин. 37 сек.</t>
+    <t>13 ч. 07 мин. 37 сек.</t>
   </si>
   <si>
     <t>Руфер</t>
@@ -4913,13 +4913,13 @@
     <t>Тинейджер2004</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 29 сек.</t>
+    <t>3 ч. 09 мин. 29 сек.</t>
   </si>
   <si>
     <t>Flam91</t>
   </si>
   <si>
-    <t>6 ч. 47 мин. 5 сек.</t>
+    <t>6 ч. 47 мин. 05 сек.</t>
   </si>
   <si>
     <t>699–706</t>
@@ -4961,7 +4961,7 @@
     <t>Очепяткин</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 20 сек.</t>
+    <t>4 ч. 08 мин. 20 сек.</t>
   </si>
   <si>
     <t>motivation</t>
@@ -5000,7 +5000,7 @@
     <t>DLemma</t>
   </si>
   <si>
-    <t>4 ч. 51 мин. 0 сек.</t>
+    <t>4 ч. 51 мин. 00 сек.</t>
   </si>
   <si>
     <t>wanton</t>
@@ -5012,7 +5012,7 @@
     <t>strawberries</t>
   </si>
   <si>
-    <t>25 ч. 3 мин. 51 сек.</t>
+    <t>25 ч. 03 мин. 51 сек.</t>
   </si>
   <si>
     <t>714–717</t>
@@ -5021,13 +5021,13 @@
     <t>I-van</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 36 сек.</t>
+    <t>4 ч. 09 мин. 36 сек.</t>
   </si>
   <si>
     <t>kubikrubika</t>
   </si>
   <si>
-    <t>5 ч. 10 мин. 6 сек.</t>
+    <t>5 ч. 10 мин. 06 сек.</t>
   </si>
   <si>
     <t>YuranTM</t>
@@ -5063,7 +5063,7 @@
     <t>gektor768</t>
   </si>
   <si>
-    <t>6 ч. 34 мин. 9 сек.</t>
+    <t>6 ч. 34 мин. 09 сек.</t>
   </si>
   <si>
     <t>ВалераУлитка</t>
@@ -5081,7 +5081,7 @@
     <t>Стартуем</t>
   </si>
   <si>
-    <t>33 ч. 1 мин. 28 сек.</t>
+    <t>33 ч. 01 мин. 28 сек.</t>
   </si>
   <si>
     <t>724–725</t>
@@ -5090,13 +5090,13 @@
     <t>El_Mago</t>
   </si>
   <si>
-    <t>6 ч. 18 мин. 4 сек.</t>
+    <t>6 ч. 18 мин. 04 сек.</t>
   </si>
   <si>
     <t>SamArKin</t>
   </si>
   <si>
-    <t>49 ч. 0 мин. 57 сек.</t>
+    <t>49 ч. 00 мин. 57 сек.</t>
   </si>
   <si>
     <t>726–729</t>
@@ -5105,13 +5105,13 @@
     <t>Radonezhskiy</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 13 сек.</t>
+    <t>2 ч. 09 мин. 13 сек.</t>
   </si>
   <si>
     <t>ilya_138</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 29 сек.</t>
+    <t>3 ч. 07 мин. 29 сек.</t>
   </si>
   <si>
     <t>flash51</t>
@@ -5132,7 +5132,7 @@
     <t>IamCrazy</t>
   </si>
   <si>
-    <t>4 ч. 46 мин. 4 сек.</t>
+    <t>4 ч. 46 мин. 04 сек.</t>
   </si>
   <si>
     <t>Jerichoni</t>
@@ -5150,7 +5150,7 @@
     <t>РодионГ</t>
   </si>
   <si>
-    <t>26 ч. 6 мин. 56 сек.</t>
+    <t>26 ч. 06 мин. 56 сек.</t>
   </si>
   <si>
     <t>734–738</t>
@@ -5159,7 +5159,7 @@
     <t>vdkrasniy</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 26 сек.</t>
+    <t>2 ч. 03 мин. 26 сек.</t>
   </si>
   <si>
     <t>samaja-samaja</t>
@@ -5171,7 +5171,7 @@
     <t>Radius</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 8 сек.</t>
+    <t>2 ч. 07 мин. 08 сек.</t>
   </si>
   <si>
     <t>vic0nt</t>
@@ -5216,7 +5216,7 @@
     <t>__мутя__</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 43 сек.</t>
+    <t>5 ч. 00 мин. 43 сек.</t>
   </si>
   <si>
     <t>744–747</t>
@@ -5225,7 +5225,7 @@
     <t>Шарманщик</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 43 сек.</t>
+    <t>2 ч. 03 мин. 43 сек.</t>
   </si>
   <si>
     <t>Unwear</t>
@@ -5249,13 +5249,13 @@
     <t>ZVEZDNAYA</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 50 сек.</t>
+    <t>6 ч. 00 мин. 50 сек.</t>
   </si>
   <si>
     <t>NineFingers</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 25 сек.</t>
+    <t>5 ч. 06 мин. 25 сек.</t>
   </si>
   <si>
     <t>Zephir</t>
@@ -5273,7 +5273,7 @@
     <t>akanat</t>
   </si>
   <si>
-    <t>38 ч. 12 мин. 4 сек.</t>
+    <t>38 ч. 12 мин. 04 сек.</t>
   </si>
   <si>
     <t>dertru</t>
@@ -5294,13 +5294,13 @@
     <t>Тарья</t>
   </si>
   <si>
-    <t>2 ч. 16 мин. 6 сек.</t>
+    <t>2 ч. 16 мин. 06 сек.</t>
   </si>
   <si>
     <t>Milker</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 45 сек.</t>
+    <t>3 ч. 02 мин. 45 сек.</t>
   </si>
   <si>
     <t>чебупеля</t>
@@ -5312,13 +5312,13 @@
     <t>Feine</t>
   </si>
   <si>
-    <t>3 ч. 49 мин. 3 сек.</t>
+    <t>3 ч. 49 мин. 03 сек.</t>
   </si>
   <si>
     <t>Plectrum</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 51 сек.</t>
+    <t>5 ч. 08 мин. 51 сек.</t>
   </si>
   <si>
     <t>тощий_кабан</t>
@@ -5333,13 +5333,13 @@
     <t>vvoland</t>
   </si>
   <si>
-    <t>8 ч. 38 мин. 4 сек.</t>
+    <t>8 ч. 38 мин. 04 сек.</t>
   </si>
   <si>
     <t>CBETJIAHA</t>
   </si>
   <si>
-    <t>10 ч. 37 мин. 8 сек.</t>
+    <t>10 ч. 37 мин. 08 сек.</t>
   </si>
   <si>
     <t>764–770</t>
@@ -5348,7 +5348,7 @@
     <t>arhibaboon</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 46 сек.</t>
+    <t>3 ч. 04 мин. 46 сек.</t>
   </si>
   <si>
     <t>-Vovik-</t>
@@ -5426,7 +5426,7 @@
     <t>inine</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 46 сек.</t>
+    <t>2 ч. 09 мин. 46 сек.</t>
   </si>
   <si>
     <t>Julieta-nv</t>
@@ -5471,7 +5471,7 @@
     <t>Tavduk</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 6 сек.</t>
+    <t>4 ч. 09 мин. 06 сек.</t>
   </si>
   <si>
     <t>expollux</t>
@@ -5504,13 +5504,13 @@
     <t>Кусака</t>
   </si>
   <si>
-    <t>1 ч. 29 мин. 8 сек.</t>
+    <t>1 ч. 29 мин. 08 сек.</t>
   </si>
   <si>
     <t>skillup</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 11 сек.</t>
+    <t>2 ч. 09 мин. 11 сек.</t>
   </si>
   <si>
     <t>Бред_паника</t>
@@ -5537,7 +5537,7 @@
     <t>Haarspalter</t>
   </si>
   <si>
-    <t>1 ч. 39 мин. 8 сек.</t>
+    <t>1 ч. 39 мин. 08 сек.</t>
   </si>
   <si>
     <t>sakh10</t>
@@ -5567,7 +5567,7 @@
     <t>Шадрин</t>
   </si>
   <si>
-    <t>7 ч. 2 мин. 46 сек.</t>
+    <t>7 ч. 02 мин. 46 сек.</t>
   </si>
   <si>
     <t>jodic2001</t>
@@ -5588,13 +5588,13 @@
     <t>romashe</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 11 сек.</t>
+    <t>4 ч. 06 мин. 11 сек.</t>
   </si>
   <si>
     <t>virones</t>
   </si>
   <si>
-    <t>4 ч. 42 мин. 8 сек.</t>
+    <t>4 ч. 42 мин. 08 сек.</t>
   </si>
   <si>
     <t>803–809</t>
@@ -5609,13 +5609,13 @@
     <t>O_legich</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 7 сек.</t>
+    <t>2 ч. 05 мин. 07 сек.</t>
   </si>
   <si>
     <t>Ulin</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 51 сек.</t>
+    <t>3 ч. 07 мин. 51 сек.</t>
   </si>
   <si>
     <t>Takuu</t>
@@ -5639,7 +5639,7 @@
     <t>Mask2017</t>
   </si>
   <si>
-    <t>15 ч. 48 мин. 4 сек.</t>
+    <t>15 ч. 48 мин. 04 сек.</t>
   </si>
   <si>
     <t>810–819</t>
@@ -5648,13 +5648,13 @@
     <t>Yankovich</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 42 сек.</t>
+    <t>2 ч. 02 мин. 42 сек.</t>
   </si>
   <si>
     <t>-ItachiUchiha-</t>
   </si>
   <si>
-    <t>1 ч. 53 мин. 9 сек.</t>
+    <t>1 ч. 53 мин. 09 сек.</t>
   </si>
   <si>
     <t>lemming</t>
@@ -5666,7 +5666,7 @@
     <t>Nolan_Joke</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 3 сек.</t>
+    <t>3 ч. 04 мин. 03 сек.</t>
   </si>
   <si>
     <t>Анетточка</t>
@@ -5678,7 +5678,7 @@
     <t>formax</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 33 сек.</t>
+    <t>3 ч. 05 мин. 33 сек.</t>
   </si>
   <si>
     <t>Дирижабль</t>
@@ -5690,7 +5690,7 @@
     <t>клавоинка</t>
   </si>
   <si>
-    <t>7 ч. 36 мин. 3 сек.</t>
+    <t>7 ч. 36 мин. 03 сек.</t>
   </si>
   <si>
     <t>Ildus</t>
@@ -5735,13 +5735,13 @@
     <t>Egen</t>
   </si>
   <si>
-    <t>4 ч. 36 мин. 1 сек.</t>
+    <t>4 ч. 36 мин. 01 сек.</t>
   </si>
   <si>
     <t>Ирдэнс</t>
   </si>
   <si>
-    <t>5 ч. 44 мин. 4 сек.</t>
+    <t>5 ч. 44 мин. 04 сек.</t>
   </si>
   <si>
     <t>826–834</t>
@@ -5759,7 +5759,7 @@
     <t>amt</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 30 сек.</t>
+    <t>2 ч. 04 мин. 30 сек.</t>
   </si>
   <si>
     <t>valiver</t>
@@ -5810,7 +5810,7 @@
     <t>Miss_Think</t>
   </si>
   <si>
-    <t>5 ч. 10 мин. 7 сек.</t>
+    <t>5 ч. 10 мин. 07 сек.</t>
   </si>
   <si>
     <t>olaolg</t>
@@ -5855,7 +5855,7 @@
     <t>PushTheButton</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 25 сек.</t>
+    <t>3 ч. 02 мин. 25 сек.</t>
   </si>
   <si>
     <t>Dany</t>
@@ -5900,7 +5900,7 @@
     <t>Spaider</t>
   </si>
   <si>
-    <t>4 ч. 13 мин. 7 сек.</t>
+    <t>4 ч. 13 мин. 07 сек.</t>
   </si>
   <si>
     <t>malencaya</t>
@@ -5912,7 +5912,7 @@
     <t>ShdwWrrr</t>
   </si>
   <si>
-    <t>6 ч. 32 мин. 2 сек.</t>
+    <t>6 ч. 32 мин. 02 сек.</t>
   </si>
   <si>
     <t>Cherry</t>
@@ -5939,7 +5939,7 @@
     <t>evgenich1992</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 59 сек.</t>
+    <t>5 ч. 08 мин. 59 сек.</t>
   </si>
   <si>
     <t>andddrey</t>
@@ -5981,13 +5981,13 @@
     <t>pavel88</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 48 сек.</t>
+    <t>3 ч. 01 мин. 48 сек.</t>
   </si>
   <si>
     <t>schamuil</t>
   </si>
   <si>
-    <t>12 ч. 3 мин. 42 сек.</t>
+    <t>12 ч. 03 мин. 42 сек.</t>
   </si>
   <si>
     <t>Just_so_Lex</t>
@@ -6020,7 +6020,7 @@
     <t>ДедМороз</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 33 сек.</t>
+    <t>2 ч. 02 мин. 33 сек.</t>
   </si>
   <si>
     <t>lislkap</t>
@@ -6041,7 +6041,7 @@
     <t>Skiper</t>
   </si>
   <si>
-    <t>3 ч. 26 мин. 0 сек.</t>
+    <t>3 ч. 26 мин. 00 сек.</t>
   </si>
   <si>
     <t>aGm</t>
@@ -6053,7 +6053,7 @@
     <t>Ishka</t>
   </si>
   <si>
-    <t>4 ч. 7 мин. 24 сек.</t>
+    <t>4 ч. 07 мин. 24 сек.</t>
   </si>
   <si>
     <t>Соточка</t>
@@ -6107,7 +6107,7 @@
     <t>Uri55</t>
   </si>
   <si>
-    <t>89 ч. 32 мин. 0 сек.</t>
+    <t>89 ч. 32 мин. 00 сек.</t>
   </si>
   <si>
     <t>883–886</t>
@@ -6164,7 +6164,7 @@
     <t>OlegaBaranov</t>
   </si>
   <si>
-    <t>5 ч. 37 мин. 3 сек.</t>
+    <t>5 ч. 37 мин. 03 сек.</t>
   </si>
   <si>
     <t>Хеопс</t>
@@ -6185,7 +6185,7 @@
     <t>aael</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 20 сек.</t>
+    <t>3 ч. 02 мин. 20 сек.</t>
   </si>
   <si>
     <t>evgen65</t>
@@ -6197,7 +6197,7 @@
     <t>ivan_grishov96</t>
   </si>
   <si>
-    <t>9 ч. 8 мин. 26 сек.</t>
+    <t>9 ч. 08 мин. 26 сек.</t>
   </si>
   <si>
     <t>896–899</t>
@@ -6209,7 +6209,7 @@
     <t>oktkos</t>
   </si>
   <si>
-    <t>4 ч. 49 мин. 7 сек.</t>
+    <t>4 ч. 49 мин. 07 сек.</t>
   </si>
   <si>
     <t>igrom</t>
@@ -6236,7 +6236,7 @@
     <t>ЛОР</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 6 сек.</t>
+    <t>2 ч. 08 мин. 06 сек.</t>
   </si>
   <si>
     <t>avtor443</t>
@@ -6248,7 +6248,7 @@
     <t>ВитекД</t>
   </si>
   <si>
-    <t>2 ч. 42 мин. 9 сек.</t>
+    <t>2 ч. 42 мин. 09 сек.</t>
   </si>
   <si>
     <t>Карри</t>
@@ -6272,7 +6272,7 @@
     <t>atikin88</t>
   </si>
   <si>
-    <t>10 ч. 30 мин. 2 сек.</t>
+    <t>10 ч. 30 мин. 02 сек.</t>
   </si>
   <si>
     <t>908–915</t>
@@ -6287,7 +6287,7 @@
     <t>Caballero</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 38 сек.</t>
+    <t>2 ч. 08 мин. 38 сек.</t>
   </si>
   <si>
     <t>Sweet_Lana</t>
@@ -6296,13 +6296,13 @@
     <t>ГоуВин</t>
   </si>
   <si>
-    <t>5 ч. 5 мин. 29 сек.</t>
+    <t>5 ч. 05 мин. 29 сек.</t>
   </si>
   <si>
     <t>Darwinian</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 39 сек.</t>
+    <t>4 ч. 03 мин. 39 сек.</t>
   </si>
   <si>
     <t>Странник</t>
@@ -6314,13 +6314,13 @@
     <t>koljan359</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 17 сек.</t>
+    <t>6 ч. 09 мин. 17 сек.</t>
   </si>
   <si>
     <t>ЕНИ</t>
   </si>
   <si>
-    <t>9 ч. 24 мин. 2 сек.</t>
+    <t>9 ч. 24 мин. 02 сек.</t>
   </si>
   <si>
     <t>916–921</t>
@@ -6332,7 +6332,7 @@
     <t>vladex</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 40 сек.</t>
+    <t>2 ч. 02 мин. 40 сек.</t>
   </si>
   <si>
     <t>Dornat</t>
@@ -6365,7 +6365,7 @@
     <t>NDancer</t>
   </si>
   <si>
-    <t>1 ч. 51 мин. 4 сек.</t>
+    <t>1 ч. 51 мин. 04 сек.</t>
   </si>
   <si>
     <t>Ladynec</t>
@@ -6377,13 +6377,13 @@
     <t>Pill_Kates</t>
   </si>
   <si>
-    <t>3 ч. 34 мин. 7 сек.</t>
+    <t>3 ч. 34 мин. 07 сек.</t>
   </si>
   <si>
     <t>yaguarvl</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 1 сек.</t>
+    <t>6 ч. 09 мин. 01 сек.</t>
   </si>
   <si>
     <t>Fuuruub</t>
@@ -6434,7 +6434,7 @@
     <t>Хирург_Смерти</t>
   </si>
   <si>
-    <t>2 ч. 31 мин. 7 сек.</t>
+    <t>2 ч. 31 мин. 07 сек.</t>
   </si>
   <si>
     <t>MadskiLLzon</t>
@@ -6485,7 +6485,7 @@
     <t>greenbear</t>
   </si>
   <si>
-    <t>2 ч. 21 мин. 8 сек.</t>
+    <t>2 ч. 21 мин. 08 сек.</t>
   </si>
   <si>
     <t>orient_nsk</t>
@@ -6509,7 +6509,7 @@
     <t>DietrichDeurt</t>
   </si>
   <si>
-    <t>20 ч. 31 мин. 6 сек.</t>
+    <t>20 ч. 31 мин. 06 сек.</t>
   </si>
   <si>
     <t>Сима44</t>
@@ -6554,7 +6554,7 @@
     <t>Tatsi_3006</t>
   </si>
   <si>
-    <t>19 ч. 0 мин. 55 сек.</t>
+    <t>19 ч. 00 мин. 55 сек.</t>
   </si>
   <si>
     <t>954–962</t>
@@ -6587,7 +6587,7 @@
     <t>Yerlasdc</t>
   </si>
   <si>
-    <t>2 ч. 29 мин. 9 сек.</t>
+    <t>2 ч. 29 мин. 09 сек.</t>
   </si>
   <si>
     <t>Tenfrow</t>
@@ -6611,7 +6611,7 @@
     <t>fominov</t>
   </si>
   <si>
-    <t>6 ч. 58 мин. 8 сек.</t>
+    <t>6 ч. 58 мин. 08 сек.</t>
   </si>
   <si>
     <t>963–967</t>
@@ -6620,19 +6620,19 @@
     <t>yoyu</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 34 сек.</t>
+    <t>2 ч. 01 мин. 34 сек.</t>
   </si>
   <si>
     <t>_Влада_</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 5 сек.</t>
+    <t>3 ч. 06 мин. 05 сек.</t>
   </si>
   <si>
     <t>Rain</t>
   </si>
   <si>
-    <t>6 ч. 20 мин. 5 сек.</t>
+    <t>6 ч. 20 мин. 05 сек.</t>
   </si>
   <si>
     <t>Super_Man777</t>
@@ -6680,7 +6680,7 @@
     <t>Lusil</t>
   </si>
   <si>
-    <t>2 ч. 36 мин. 6 сек.</t>
+    <t>2 ч. 36 мин. 06 сек.</t>
   </si>
   <si>
     <t>Tenza</t>
@@ -6692,13 +6692,13 @@
     <t>Katyakop</t>
   </si>
   <si>
-    <t>2 ч. 49 мин. 5 сек.</t>
+    <t>2 ч. 49 мин. 05 сек.</t>
   </si>
   <si>
     <t>digit47</t>
   </si>
   <si>
-    <t>3 ч. 42 мин. 1 сек.</t>
+    <t>3 ч. 42 мин. 01 сек.</t>
   </si>
   <si>
     <t>vovetRU</t>
@@ -6737,7 +6737,7 @@
     <t>anclaw</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 20 сек.</t>
+    <t>3 ч. 05 мин. 20 сек.</t>
   </si>
   <si>
     <t>velsher123</t>
@@ -6761,7 +6761,7 @@
     <t>BIKE-off</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 9 сек.</t>
+    <t>7 ч. 00 мин. 09 сек.</t>
   </si>
   <si>
     <t>AnArda</t>
@@ -6794,7 +6794,7 @@
     <t>фонГрамофон</t>
   </si>
   <si>
-    <t>6 ч. 40 мин. 3 сек.</t>
+    <t>6 ч. 40 мин. 03 сек.</t>
   </si>
   <si>
     <t>lehf</t>
@@ -6827,13 +6827,13 @@
     <t>eanahin8</t>
   </si>
   <si>
-    <t>2 ч. 48 мин. 2 сек.</t>
+    <t>2 ч. 48 мин. 02 сек.</t>
   </si>
   <si>
     <t>oboltuz</t>
   </si>
   <si>
-    <t>2 ч. 36 мин. 4 сек.</t>
+    <t>2 ч. 36 мин. 04 сек.</t>
   </si>
   <si>
     <t>AgeOfDeath</t>
@@ -6872,13 +6872,13 @@
     <t>banzaichik</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 43 сек.</t>
+    <t>2 ч. 01 мин. 43 сек.</t>
   </si>
   <si>
     <t>gangres</t>
   </si>
   <si>
-    <t>2 ч. 26 мин. 5 сек.</t>
+    <t>2 ч. 26 мин. 05 сек.</t>
   </si>
   <si>
     <t>roadto500spm</t>
@@ -6917,7 +6917,7 @@
     <t>Spetznaz</t>
   </si>
   <si>
-    <t>6 ч. 2 мин. 53 сек.</t>
+    <t>6 ч. 02 мин. 53 сек.</t>
   </si>
   <si>
     <t>1010–1015</t>
@@ -6929,7 +6929,7 @@
     <t>gek1</t>
   </si>
   <si>
-    <t>2 ч. 30 мин. 9 сек.</t>
+    <t>2 ч. 30 мин. 09 сек.</t>
   </si>
   <si>
     <t>FGV</t>
@@ -6953,7 +6953,7 @@
     <t>Alber</t>
   </si>
   <si>
-    <t>21 ч. 3 мин. 58 сек.</t>
+    <t>21 ч. 03 мин. 58 сек.</t>
   </si>
   <si>
     <t>1016–1022</t>
@@ -6962,7 +6962,7 @@
     <t>ЕвгенияСеверная</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 41 сек.</t>
+    <t>2 ч. 06 мин. 41 сек.</t>
   </si>
   <si>
     <t>ElenaF</t>
@@ -6980,7 +6980,7 @@
     <t>Alexar</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 26 сек.</t>
+    <t>6 ч. 06 мин. 26 сек.</t>
   </si>
   <si>
     <t>InSh</t>
@@ -6992,13 +6992,13 @@
     <t>Bozhidar</t>
   </si>
   <si>
-    <t>17 ч. 27 мин. 1 сек.</t>
+    <t>17 ч. 27 мин. 01 сек.</t>
   </si>
   <si>
     <t>БурячОК</t>
   </si>
   <si>
-    <t>27 ч. 0 мин. 59 сек.</t>
+    <t>27 ч. 00 мин. 59 сек.</t>
   </si>
   <si>
     <t>1023–1027</t>
@@ -7007,7 +7007,7 @@
     <t>dots_and_dashes</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 41 сек.</t>
+    <t>2 ч. 07 мин. 41 сек.</t>
   </si>
   <si>
     <t>ulitkamix</t>
@@ -7052,7 +7052,7 @@
     <t>daktule</t>
   </si>
   <si>
-    <t>4 ч. 7 мин. 9 сек.</t>
+    <t>4 ч. 07 мин. 09 сек.</t>
   </si>
   <si>
     <t>Klavius</t>
@@ -7097,7 +7097,7 @@
     <t>Zettabyte</t>
   </si>
   <si>
-    <t>12 ч. 3 мин. 27 сек.</t>
+    <t>12 ч. 03 мин. 27 сек.</t>
   </si>
   <si>
     <t>eltest1226</t>
@@ -7118,7 +7118,7 @@
     <t>dslf</t>
   </si>
   <si>
-    <t>5 ч. 34 мин. 7 сек.</t>
+    <t>5 ч. 34 мин. 07 сек.</t>
   </si>
   <si>
     <t>romashka_raz</t>
@@ -7130,7 +7130,7 @@
     <t>Чумаходка</t>
   </si>
   <si>
-    <t>14 ч. 9 мин. 36 сек.</t>
+    <t>14 ч. 09 мин. 36 сек.</t>
   </si>
   <si>
     <t>1043–1046</t>
@@ -7157,7 +7157,7 @@
     <t>Engi</t>
   </si>
   <si>
-    <t>16 ч. 2 мин. 25 сек.</t>
+    <t>16 ч. 02 мин. 25 сек.</t>
   </si>
   <si>
     <t>1047–1050</t>
@@ -7184,7 +7184,7 @@
     <t>Серж_Благ</t>
   </si>
   <si>
-    <t>12 ч. 43 мин. 5 сек.</t>
+    <t>12 ч. 43 мин. 05 сек.</t>
   </si>
   <si>
     <t>1051–1056</t>
@@ -7193,7 +7193,7 @@
     <t>Novatin</t>
   </si>
   <si>
-    <t>2 ч. 38 мин. 6 сек.</t>
+    <t>2 ч. 38 мин. 06 сек.</t>
   </si>
   <si>
     <t>Fleur</t>
@@ -7205,25 +7205,25 @@
     <t>ОлегК</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 38 сек.</t>
+    <t>6 ч. 09 мин. 38 сек.</t>
   </si>
   <si>
     <t>Лелюгри</t>
   </si>
   <si>
-    <t>8 ч. 21 мин. 6 сек.</t>
+    <t>8 ч. 21 мин. 06 сек.</t>
   </si>
   <si>
     <t>Zema11</t>
   </si>
   <si>
-    <t>13 ч. 2 мин. 18 сек.</t>
+    <t>13 ч. 02 мин. 18 сек.</t>
   </si>
   <si>
     <t>Boolbek</t>
   </si>
   <si>
-    <t>26 ч. 9 мин. 10 сек.</t>
+    <t>26 ч. 09 мин. 10 сек.</t>
   </si>
   <si>
     <t>1057–1064</t>
@@ -7232,13 +7232,13 @@
     <t>Lobster28</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 51 сек.</t>
+    <t>2 ч. 03 мин. 51 сек.</t>
   </si>
   <si>
     <t>LuperZaluper</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 13 сек.</t>
+    <t>3 ч. 07 мин. 13 сек.</t>
   </si>
   <si>
     <t>Shivo</t>
@@ -7274,7 +7274,7 @@
     <t>k1netik</t>
   </si>
   <si>
-    <t>15 ч. 58 мин. 3 сек.</t>
+    <t>15 ч. 58 мин. 03 сек.</t>
   </si>
   <si>
     <t>1065–1066</t>
@@ -7310,7 +7310,7 @@
     <t>l_y_n_x</t>
   </si>
   <si>
-    <t>2 ч. 12 мин. 2 сек.</t>
+    <t>2 ч. 12 мин. 02 сек.</t>
   </si>
   <si>
     <t>kpekep_1</t>
@@ -7322,7 +7322,7 @@
     <t>Alekeks</t>
   </si>
   <si>
-    <t>3 ч. 19 мин. 5 сек.</t>
+    <t>3 ч. 19 мин. 05 сек.</t>
   </si>
   <si>
     <t>alla_indi</t>
@@ -7403,7 +7403,7 @@
     <t>azyl</t>
   </si>
   <si>
-    <t>2 ч. 42 мин. 7 сек.</t>
+    <t>2 ч. 42 мин. 07 сек.</t>
   </si>
   <si>
     <t>куборг</t>
@@ -7487,7 +7487,7 @@
     <t>zvo4</t>
   </si>
   <si>
-    <t>14 ч. 34 мин. 0 сек.</t>
+    <t>14 ч. 34 мин. 00 сек.</t>
   </si>
   <si>
     <t>1097–1100</t>
@@ -7502,7 +7502,7 @@
     <t>Prana</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 17 сек.</t>
+    <t>5 ч. 01 мин. 17 сек.</t>
   </si>
   <si>
     <t>Халк</t>
@@ -7550,7 +7550,7 @@
     <t>dabro</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 53 сек.</t>
+    <t>3 ч. 05 мин. 53 сек.</t>
   </si>
   <si>
     <t>Днище3</t>
@@ -7562,7 +7562,7 @@
     <t>helgooooooooo_O</t>
   </si>
   <si>
-    <t>7 ч. 2 мин. 47 сек.</t>
+    <t>7 ч. 02 мин. 47 сек.</t>
   </si>
   <si>
     <t>1108–1113</t>
@@ -7571,7 +7571,7 @@
     <t>Swatsded</t>
   </si>
   <si>
-    <t>2 ч. 22 мин. 9 сек.</t>
+    <t>2 ч. 22 мин. 09 сек.</t>
   </si>
   <si>
     <t>episkop</t>
@@ -7622,7 +7622,7 @@
     <t>YLuch</t>
   </si>
   <si>
-    <t>4 ч. 19 мин. 7 сек.</t>
+    <t>4 ч. 19 мин. 07 сек.</t>
   </si>
   <si>
     <t>Моя_Васька</t>
@@ -7673,7 +7673,7 @@
     <t>19550801</t>
   </si>
   <si>
-    <t>11 ч. 51 мин. 8 сек.</t>
+    <t>11 ч. 51 мин. 08 сек.</t>
   </si>
   <si>
     <t>Креслоноцец</t>
@@ -7688,7 +7688,7 @@
     <t>Rit</t>
   </si>
   <si>
-    <t>2 ч. 36 мин. 2 сек.</t>
+    <t>2 ч. 36 мин. 02 сек.</t>
   </si>
   <si>
     <t>stanislavzubar</t>
@@ -7724,7 +7724,7 @@
     <t>nikioa</t>
   </si>
   <si>
-    <t>7 ч. 43 мин. 4 сек.</t>
+    <t>7 ч. 43 мин. 04 сек.</t>
   </si>
   <si>
     <t>lirpost</t>
@@ -7739,13 +7739,13 @@
     <t>evg64</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 31 сек.</t>
+    <t>2 ч. 03 мин. 31 сек.</t>
   </si>
   <si>
     <t>Маркизик</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 12 сек.</t>
+    <t>2 ч. 09 мин. 12 сек.</t>
   </si>
   <si>
     <t>Клер</t>
@@ -7784,13 +7784,13 @@
     <t>bancir</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 20 сек.</t>
+    <t>4 ч. 00 мин. 20 сек.</t>
   </si>
   <si>
     <t>GlaVV</t>
   </si>
   <si>
-    <t>12 ч. 4 мин. 0 сек.</t>
+    <t>12 ч. 04 мин. 00 сек.</t>
   </si>
   <si>
     <t>tararamspb</t>
@@ -7805,7 +7805,7 @@
     <t>pram</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 37 сек.</t>
+    <t>2 ч. 00 мин. 37 сек.</t>
   </si>
   <si>
     <t>roma90</t>
@@ -7850,7 +7850,7 @@
     <t>raschoska</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 37 сек.</t>
+    <t>2 ч. 03 мин. 37 сек.</t>
   </si>
   <si>
     <t>Эль_Чувачино</t>
@@ -7916,7 +7916,7 @@
     <t>jcdenton</t>
   </si>
   <si>
-    <t>2 ч. 35 мин. 6 сек.</t>
+    <t>2 ч. 35 мин. 06 сек.</t>
   </si>
   <si>
     <t>AlexShadows</t>
@@ -7928,13 +7928,13 @@
     <t>Дмитрий-Сол</t>
   </si>
   <si>
-    <t>3 ч. 12 мин. 3 сек.</t>
+    <t>3 ч. 12 мин. 03 сек.</t>
   </si>
   <si>
     <t>Vadim30</t>
   </si>
   <si>
-    <t>8 ч. 56 мин. 2 сек.</t>
+    <t>8 ч. 56 мин. 02 сек.</t>
   </si>
   <si>
     <t>Doxly</t>
@@ -7952,7 +7952,7 @@
     <t>eeight</t>
   </si>
   <si>
-    <t>2 ч. 30 мин. 3 сек.</t>
+    <t>2 ч. 30 мин. 03 сек.</t>
   </si>
   <si>
     <t>PiratkaV</t>
@@ -7967,7 +7967,7 @@
     <t>MoskovKazanova</t>
   </si>
   <si>
-    <t>7 ч. 43 мин. 1 сек.</t>
+    <t>7 ч. 43 мин. 01 сек.</t>
   </si>
   <si>
     <t>qsort</t>
@@ -8000,19 +8000,19 @@
     <t>Arkadyan</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 37 сек.</t>
+    <t>4 ч. 03 мин. 37 сек.</t>
   </si>
   <si>
     <t>Danwer</t>
   </si>
   <si>
-    <t>3 ч. 59 мин. 2 сек.</t>
+    <t>3 ч. 59 мин. 02 сек.</t>
   </si>
   <si>
     <t>Tedman</t>
   </si>
   <si>
-    <t>4 ч. 39 мин. 1 сек.</t>
+    <t>4 ч. 39 мин. 01 сек.</t>
   </si>
   <si>
     <t>Stob</t>
@@ -8030,7 +8030,7 @@
     <t>forward-ok</t>
   </si>
   <si>
-    <t>21 ч. 21 мин. 1 сек.</t>
+    <t>21 ч. 21 мин. 01 сек.</t>
   </si>
   <si>
     <t>1182–1184</t>
@@ -8072,7 +8072,7 @@
     <t>algorithm</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 49 сек.</t>
+    <t>3 ч. 08 мин. 49 сек.</t>
   </si>
   <si>
     <t>Sandi</t>
@@ -8099,13 +8099,13 @@
     <t>forbatyr</t>
   </si>
   <si>
-    <t>2 ч. 24 мин. 1 сек.</t>
+    <t>2 ч. 24 мин. 01 сек.</t>
   </si>
   <si>
     <t>niravel</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 5 сек.</t>
+    <t>3 ч. 01 мин. 05 сек.</t>
   </si>
   <si>
     <t>YUMMY</t>
@@ -8123,7 +8123,7 @@
     <t>Speed_King</t>
   </si>
   <si>
-    <t>15 ч. 9 мин. 14 сек.</t>
+    <t>15 ч. 09 мин. 14 сек.</t>
   </si>
   <si>
     <t>1196–1201</t>
@@ -8132,7 +8132,7 @@
     <t>Camaxtli</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 33 сек.</t>
+    <t>2 ч. 09 мин. 33 сек.</t>
   </si>
   <si>
     <t>KeSeG</t>
@@ -8162,7 +8162,7 @@
     <t>Radchin</t>
   </si>
   <si>
-    <t>16 ч. 38 мин. 2 сек.</t>
+    <t>16 ч. 38 мин. 02 сек.</t>
   </si>
   <si>
     <t>1202–1205</t>
@@ -8177,7 +8177,7 @@
     <t>Konstantine</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 24 сек.</t>
+    <t>4 ч. 05 мин. 24 сек.</t>
   </si>
   <si>
     <t>Ларис</t>
@@ -8216,7 +8216,7 @@
     <t>Алека</t>
   </si>
   <si>
-    <t>17 ч. 35 мин. 4 сек.</t>
+    <t>17 ч. 35 мин. 04 сек.</t>
   </si>
   <si>
     <t>1210–1214</t>
@@ -8231,7 +8231,7 @@
     <t>Энтони26</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 33 сек.</t>
+    <t>3 ч. 04 мин. 33 сек.</t>
   </si>
   <si>
     <t>Lanskay</t>
@@ -8243,13 +8243,13 @@
     <t>Vadimnecha</t>
   </si>
   <si>
-    <t>5 ч. 22 мин. 7 сек.</t>
+    <t>5 ч. 22 мин. 07 сек.</t>
   </si>
   <si>
     <t>kpavel1990</t>
   </si>
   <si>
-    <t>7 ч. 4 мин. 3 сек.</t>
+    <t>7 ч. 04 мин. 03 сек.</t>
   </si>
   <si>
     <t>1215</t>
@@ -8267,7 +8267,7 @@
     <t>macrophageNT</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 49 сек.</t>
+    <t>3 ч. 00 мин. 49 сек.</t>
   </si>
   <si>
     <t>livianna</t>
@@ -8285,7 +8285,7 @@
     <t>Yuron_19</t>
   </si>
   <si>
-    <t>12 ч. 0 мин. 1 сек.</t>
+    <t>12 ч. 00 мин. 01 сек.</t>
   </si>
   <si>
     <t>1220–1223</t>
@@ -8306,7 +8306,7 @@
     <t>Vi2GaN</t>
   </si>
   <si>
-    <t>7 ч. 2 мин. 45 сек.</t>
+    <t>7 ч. 02 мин. 45 сек.</t>
   </si>
   <si>
     <t>Геос</t>
@@ -8348,7 +8348,7 @@
     <t>serg3295</t>
   </si>
   <si>
-    <t>7 ч. 20 мин. 9 сек.</t>
+    <t>7 ч. 20 мин. 09 сек.</t>
   </si>
   <si>
     <t>NikCasual</t>
@@ -8363,7 +8363,7 @@
     <t>Misha20062006</t>
   </si>
   <si>
-    <t>2 ч. 56 мин. 2 сек.</t>
+    <t>2 ч. 56 мин. 02 сек.</t>
   </si>
   <si>
     <t>bocharnikov</t>
@@ -8402,7 +8402,7 @@
     <t>dns1337</t>
   </si>
   <si>
-    <t>2 ч. 55 мин. 3 сек.</t>
+    <t>2 ч. 55 мин. 03 сек.</t>
   </si>
   <si>
     <t>Steel_Fomka</t>
@@ -8414,7 +8414,7 @@
     <t>nadgarstek</t>
   </si>
   <si>
-    <t>6 ч. 8 мин. 18 сек.</t>
+    <t>6 ч. 08 мин. 18 сек.</t>
   </si>
   <si>
     <t>suprem-012</t>
@@ -8444,19 +8444,19 @@
     <t>DiMan84</t>
   </si>
   <si>
-    <t>9 ч. 6 мин. 23 сек.</t>
+    <t>9 ч. 06 мин. 23 сек.</t>
   </si>
   <si>
     <t>SimFirso</t>
   </si>
   <si>
-    <t>19 ч. 3 мин. 13 сек.</t>
+    <t>19 ч. 03 мин. 13 сек.</t>
   </si>
   <si>
     <t>Hei5</t>
   </si>
   <si>
-    <t>20 ч. 1 мин. 35 сек.</t>
+    <t>20 ч. 01 мин. 35 сек.</t>
   </si>
   <si>
     <t>1246–1251</t>
@@ -8483,7 +8483,7 @@
     <t>Imperatorus</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 3 сек.</t>
+    <t>4 ч. 04 мин. 03 сек.</t>
   </si>
   <si>
     <t>midmed</t>
@@ -8525,7 +8525,7 @@
     <t>Владимир1989</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 31 сек.</t>
+    <t>3 ч. 06 мин. 31 сек.</t>
   </si>
   <si>
     <t>1256–1262</t>
@@ -8537,7 +8537,7 @@
     <t>Mantis43</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 1 сек.</t>
+    <t>3 ч. 03 мин. 01 сек.</t>
   </si>
   <si>
     <t>1ovkach</t>
@@ -8549,7 +8549,7 @@
     <t>Pricel2</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 10 сек.</t>
+    <t>5 ч. 01 мин. 10 сек.</t>
   </si>
   <si>
     <t>Mr_Miyagi</t>
@@ -8561,7 +8561,7 @@
     <t>Tata3808</t>
   </si>
   <si>
-    <t>7 ч. 13 мин. 1 сек.</t>
+    <t>7 ч. 13 мин. 01 сек.</t>
   </si>
   <si>
     <t>killerloop555</t>
@@ -8576,13 +8576,13 @@
     <t>Vadim04</t>
   </si>
   <si>
-    <t>2 ч. 19 мин. 7 сек.</t>
+    <t>2 ч. 19 мин. 07 сек.</t>
   </si>
   <si>
     <t>KompoZZytor</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 45 сек.</t>
+    <t>2 ч. 01 мин. 45 сек.</t>
   </si>
   <si>
     <t>akmubi</t>
@@ -8594,13 +8594,13 @@
     <t>gevis</t>
   </si>
   <si>
-    <t>3 ч. 50 мин. 7 сек.</t>
+    <t>3 ч. 50 мин. 07 сек.</t>
   </si>
   <si>
     <t>nata-natusechka</t>
   </si>
   <si>
-    <t>4 ч. 38 мин. 8 сек.</t>
+    <t>4 ч. 38 мин. 08 сек.</t>
   </si>
   <si>
     <t>Grizzly284</t>
@@ -8618,7 +8618,7 @@
     <t>zilok5301</t>
   </si>
   <si>
-    <t>50 ч. 20 мин. 2 сек.</t>
+    <t>50 ч. 20 мин. 02 сек.</t>
   </si>
   <si>
     <t>1271–1272</t>
@@ -8717,13 +8717,13 @@
     <t>platonegorov</t>
   </si>
   <si>
-    <t>6 ч. 47 мин. 9 сек.</t>
+    <t>6 ч. 47 мин. 09 сек.</t>
   </si>
   <si>
     <t>volk70</t>
   </si>
   <si>
-    <t>15 ч. 13 мин. 9 сек.</t>
+    <t>15 ч. 13 мин. 09 сек.</t>
   </si>
   <si>
     <t>AlViNic</t>
@@ -8738,7 +8738,7 @@
     <t>Модильяни</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 30 сек.</t>
+    <t>2 ч. 07 мин. 30 сек.</t>
   </si>
   <si>
     <t>kolyuchiy</t>
@@ -8750,7 +8750,7 @@
     <t>iaoz</t>
   </si>
   <si>
-    <t>3 ч. 24 мин. 7 сек.</t>
+    <t>3 ч. 24 мин. 07 сек.</t>
   </si>
   <si>
     <t>Nuria</t>
@@ -8777,7 +8777,7 @@
     <t>hotkeys</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 14 сек.</t>
+    <t>3 ч. 04 мин. 14 сек.</t>
   </si>
   <si>
     <t>b00n1nXO</t>
@@ -8795,7 +8795,7 @@
     <t>Glage</t>
   </si>
   <si>
-    <t>10 ч. 51 мин. 4 сек.</t>
+    <t>10 ч. 51 мин. 04 сек.</t>
   </si>
   <si>
     <t>kotartur</t>
@@ -8843,7 +8843,7 @@
     <t>-777-</t>
   </si>
   <si>
-    <t>3 ч. 13 мин. 2 сек.</t>
+    <t>3 ч. 13 мин. 02 сек.</t>
   </si>
   <si>
     <t>kinka</t>
@@ -8882,7 +8882,7 @@
     <t>Liudmyla</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 29 сек.</t>
+    <t>2 ч. 00 мин. 29 сек.</t>
   </si>
   <si>
     <t>Nikolas22</t>
@@ -8930,7 +8930,7 @@
     <t>sanme</t>
   </si>
   <si>
-    <t>2 ч. 43 мин. 6 сек.</t>
+    <t>2 ч. 43 мин. 06 сек.</t>
   </si>
   <si>
     <t>SlavaSlava</t>
@@ -8978,7 +8978,7 @@
     <t>CiberRus</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 30 сек.</t>
+    <t>4 ч. 04 мин. 30 сек.</t>
   </si>
   <si>
     <t>kvv</t>
@@ -9056,7 +9056,7 @@
     <t>Тебятожка</t>
   </si>
   <si>
-    <t>2 ч. 20 мин. 1 сек.</t>
+    <t>2 ч. 20 мин. 01 сек.</t>
   </si>
   <si>
     <t>JuljaJulia</t>
@@ -9068,7 +9068,7 @@
     <t>Asjay</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 25 сек.</t>
+    <t>3 ч. 07 мин. 25 сек.</t>
   </si>
   <si>
     <t>dobrik007</t>
@@ -9113,7 +9113,7 @@
     <t>nick1m</t>
   </si>
   <si>
-    <t>11 ч. 2 мин. 30 сек.</t>
+    <t>11 ч. 02 мин. 30 сек.</t>
   </si>
   <si>
     <t>1345–1347</t>
@@ -9122,13 +9122,13 @@
     <t>ятвояклавиатура</t>
   </si>
   <si>
-    <t>2 ч. 42 мин. 4 сек.</t>
+    <t>2 ч. 42 мин. 04 сек.</t>
   </si>
   <si>
     <t>Ladimir</t>
   </si>
   <si>
-    <t>2 ч. 21 мин. 6 сек.</t>
+    <t>2 ч. 21 мин. 06 сек.</t>
   </si>
   <si>
     <t>NodeJS</t>
@@ -9143,7 +9143,7 @@
     <t>barera</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 32 сек.</t>
+    <t>3 ч. 05 мин. 32 сек.</t>
   </si>
   <si>
     <t>1349–1351</t>
@@ -9191,7 +9191,7 @@
     <t>sano7161</t>
   </si>
   <si>
-    <t>7 ч. 13 мин. 2 сек.</t>
+    <t>7 ч. 13 мин. 02 сек.</t>
   </si>
   <si>
     <t>1356–1357</t>
@@ -9200,7 +9200,7 @@
     <t>olimpicano</t>
   </si>
   <si>
-    <t>24 ч. 3 мин. 55 сек.</t>
+    <t>24 ч. 03 мин. 55 сек.</t>
   </si>
   <si>
     <t>1912</t>
@@ -9233,7 +9233,7 @@
     <t>Cerry-Ledy</t>
   </si>
   <si>
-    <t>9 ч. 10 мин. 5 сек.</t>
+    <t>9 ч. 10 мин. 05 сек.</t>
   </si>
   <si>
     <t>bash2b</t>
@@ -9254,7 +9254,7 @@
     <t>Вета79</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 43 сек.</t>
+    <t>4 ч. 06 мин. 43 сек.</t>
   </si>
   <si>
     <t>fitochay</t>
@@ -9272,7 +9272,7 @@
     <t>Gen1us</t>
   </si>
   <si>
-    <t>4 ч. 23 мин. 5 сек.</t>
+    <t>4 ч. 23 мин. 05 сек.</t>
   </si>
   <si>
     <t>Гонибалл</t>
@@ -9323,19 +9323,19 @@
     <t>Иванна_</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 54 сек.</t>
+    <t>3 ч. 09 мин. 54 сек.</t>
   </si>
   <si>
     <t>Soulreader</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 53 сек.</t>
+    <t>4 ч. 00 мин. 53 сек.</t>
   </si>
   <si>
     <t>puton</t>
   </si>
   <si>
-    <t>4 ч. 7 мин. 32 сек.</t>
+    <t>4 ч. 07 мин. 32 сек.</t>
   </si>
   <si>
     <t>MikeRy</t>
@@ -9392,13 +9392,13 @@
     <t>Шмакодявка</t>
   </si>
   <si>
-    <t>10 ч. 1 мин. 27 сек.</t>
+    <t>10 ч. 01 мин. 27 сек.</t>
   </si>
   <si>
     <t>Anatoly79</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 18 сек.</t>
+    <t>12 ч. 09 мин. 18 сек.</t>
   </si>
   <si>
     <t>1388–1394</t>
@@ -9431,7 +9431,7 @@
     <t>Воронин</t>
   </si>
   <si>
-    <t>9 ч. 5 мин. 9 сек.</t>
+    <t>9 ч. 05 мин. 09 сек.</t>
   </si>
   <si>
     <t>XR7</t>
@@ -9443,7 +9443,7 @@
     <t>Эхпрокачуу</t>
   </si>
   <si>
-    <t>36 ч. 7 мин. 52 сек.</t>
+    <t>36 ч. 07 мин. 52 сек.</t>
   </si>
   <si>
     <t>1395–1397</t>
@@ -9458,7 +9458,7 @@
     <t>Sony_bee</t>
   </si>
   <si>
-    <t>4 ч. 49 мин. 0 сек.</t>
+    <t>4 ч. 49 мин. 00 сек.</t>
   </si>
   <si>
     <t>jabberw</t>
@@ -9479,7 +9479,7 @@
     <t>Ягода</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 21 сек.</t>
+    <t>3 ч. 05 мин. 21 сек.</t>
   </si>
   <si>
     <t>Flightz</t>
@@ -9503,13 +9503,13 @@
     <t>asalaga</t>
   </si>
   <si>
-    <t>2 ч. 50 мин. 0 сек.</t>
+    <t>2 ч. 50 мин. 00 сек.</t>
   </si>
   <si>
     <t>Igem</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 38 сек.</t>
+    <t>3 ч. 09 мин. 38 сек.</t>
   </si>
   <si>
     <t>Петр_Шестаков</t>
@@ -9521,7 +9521,7 @@
     <t>apchhi</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 53 сек.</t>
+    <t>3 ч. 03 мин. 53 сек.</t>
   </si>
   <si>
     <t>tmbd</t>
@@ -9542,7 +9542,7 @@
     <t>tkipzk</t>
   </si>
   <si>
-    <t>3 ч. 26 мин. 9 сек.</t>
+    <t>3 ч. 26 мин. 09 сек.</t>
   </si>
   <si>
     <t>parabur</t>
@@ -9569,7 +9569,7 @@
     <t>supereko</t>
   </si>
   <si>
-    <t>15 ч. 30 мин. 4 сек.</t>
+    <t>15 ч. 30 мин. 04 сек.</t>
   </si>
   <si>
     <t>1414–1415</t>
@@ -9608,7 +9608,7 @@
     <t>LADA220876</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 29 сек.</t>
+    <t>6 ч. 00 мин. 29 сек.</t>
   </si>
   <si>
     <t>bez_tormozov</t>
@@ -9683,7 +9683,7 @@
     <t>vjuh</t>
   </si>
   <si>
-    <t>2 ч. 50 мин. 9 сек.</t>
+    <t>2 ч. 50 мин. 09 сек.</t>
   </si>
   <si>
     <t>nikolay51</t>
@@ -9728,7 +9728,7 @@
     <t>SeaJey</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 34 сек.</t>
+    <t>3 ч. 00 мин. 34 сек.</t>
   </si>
   <si>
     <t>Сашаааааа</t>
@@ -9761,13 +9761,13 @@
     <t>Гончаренко</t>
   </si>
   <si>
-    <t>5 ч. 3 мин. 21 сек.</t>
+    <t>5 ч. 03 мин. 21 сек.</t>
   </si>
   <si>
     <t>tbombadil</t>
   </si>
   <si>
-    <t>4 ч. 44 мин. 8 сек.</t>
+    <t>4 ч. 44 мин. 08 сек.</t>
   </si>
   <si>
     <t>gromanspb</t>
@@ -9788,7 +9788,7 @@
     <t>Вовчик-инженер</t>
   </si>
   <si>
-    <t>3 ч. 34 мин. 3 сек.</t>
+    <t>3 ч. 34 мин. 03 сек.</t>
   </si>
   <si>
     <t>Sylarmen</t>
@@ -9830,7 +9830,7 @@
     <t>Ежики</t>
   </si>
   <si>
-    <t>11 ч. 6 мин. 45 сек.</t>
+    <t>11 ч. 06 мин. 45 сек.</t>
   </si>
   <si>
     <t>1452–1454</t>
@@ -9878,7 +9878,7 @@
     <t>woffkass</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 37 сек.</t>
+    <t>6 ч. 06 мин. 37 сек.</t>
   </si>
   <si>
     <t>Spivet</t>
@@ -9893,7 +9893,7 @@
     <t>Hodorr</t>
   </si>
   <si>
-    <t>5 ч. 9 мин. 49 сек.</t>
+    <t>5 ч. 09 мин. 49 сек.</t>
   </si>
   <si>
     <t>1461–1463</t>
@@ -9902,7 +9902,7 @@
     <t>Yaffi</t>
   </si>
   <si>
-    <t>2 ч. 40 мин. 3 сек.</t>
+    <t>2 ч. 40 мин. 03 сек.</t>
   </si>
   <si>
     <t>guest265</t>
@@ -9914,7 +9914,7 @@
     <t>Тенерифа</t>
   </si>
   <si>
-    <t>15 ч. 6 мин. 34 сек.</t>
+    <t>15 ч. 06 мин. 34 сек.</t>
   </si>
   <si>
     <t>1464–1466</t>
@@ -9929,7 +9929,7 @@
     <t>Grarad</t>
   </si>
   <si>
-    <t>8 ч. 6 мин. 33 сек.</t>
+    <t>8 ч. 06 мин. 33 сек.</t>
   </si>
   <si>
     <t>zacharovannyj</t>
@@ -9971,7 +9971,7 @@
     <t>Etl0n</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 17 сек.</t>
+    <t>3 ч. 00 мин. 17 сек.</t>
   </si>
   <si>
     <t>luchiksveta</t>
@@ -9989,7 +9989,7 @@
     <t>dehasevr</t>
   </si>
   <si>
-    <t>4 ч. 14 мин. 1 сек.</t>
+    <t>4 ч. 14 мин. 01 сек.</t>
   </si>
   <si>
     <t>1475–1477</t>
@@ -10004,7 +10004,7 @@
     <t>Stepan1990</t>
   </si>
   <si>
-    <t>5 ч. 3 мин. 56 сек.</t>
+    <t>5 ч. 03 мин. 56 сек.</t>
   </si>
   <si>
     <t>Savitri</t>
@@ -10019,13 +10019,13 @@
     <t>Ivanov13</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 7 сек.</t>
+    <t>3 ч. 05 мин. 07 сек.</t>
   </si>
   <si>
     <t>spartakne</t>
   </si>
   <si>
-    <t>11 ч. 0 мин. 37 сек.</t>
+    <t>11 ч. 00 мин. 37 сек.</t>
   </si>
   <si>
     <t>mugin</t>
@@ -10055,7 +10055,7 @@
     <t>mazirat</t>
   </si>
   <si>
-    <t>21 ч. 7 мин. 0 сек.</t>
+    <t>21 ч. 07 мин. 00 сек.</t>
   </si>
   <si>
     <t>1484–1487</t>
@@ -10064,7 +10064,7 @@
     <t>valera512</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 37 сек.</t>
+    <t>3 ч. 05 мин. 37 сек.</t>
   </si>
   <si>
     <t>konten</t>
@@ -10076,13 +10076,13 @@
     <t>Танитка</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 29 сек.</t>
+    <t>5 ч. 07 мин. 29 сек.</t>
   </si>
   <si>
     <t>lewchel</t>
   </si>
   <si>
-    <t>6 ч. 16 мин. 0 сек.</t>
+    <t>6 ч. 16 мин. 00 сек.</t>
   </si>
   <si>
     <t>1488–1492</t>
@@ -10091,13 +10091,13 @@
     <t>SectuSempra</t>
   </si>
   <si>
-    <t>3 ч. 25 мин. 8 сек.</t>
+    <t>3 ч. 25 мин. 08 сек.</t>
   </si>
   <si>
     <t>Хом</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 40 сек.</t>
+    <t>3 ч. 04 мин. 40 сек.</t>
   </si>
   <si>
     <t>savant_a</t>
@@ -10139,7 +10139,7 @@
     <t>sashokcool</t>
   </si>
   <si>
-    <t>3 ч. 44 мин. 5 сек.</t>
+    <t>3 ч. 44 мин. 05 сек.</t>
   </si>
   <si>
     <t>1496–1497</t>
@@ -10148,7 +10148,7 @@
     <t>Noiz</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 56 сек.</t>
+    <t>6 ч. 06 мин. 56 сек.</t>
   </si>
   <si>
     <t>krasotka12</t>
@@ -10202,7 +10202,7 @@
     <t>ктоточегото</t>
   </si>
   <si>
-    <t>4 ч. 45 мин. 7 сек.</t>
+    <t>4 ч. 45 мин. 07 сек.</t>
   </si>
   <si>
     <t>gassar</t>
@@ -10220,7 +10220,7 @@
     <t>ASN</t>
   </si>
   <si>
-    <t>15 ч. 5 мин. 24 сек.</t>
+    <t>15 ч. 05 мин. 24 сек.</t>
   </si>
   <si>
     <t>1508</t>
@@ -10271,7 +10271,7 @@
     <t>wizardwizard</t>
   </si>
   <si>
-    <t>14 ч. 0 мин. 5 сек.</t>
+    <t>14 ч. 00 мин. 05 сек.</t>
   </si>
   <si>
     <t>1514–1515</t>
@@ -10361,7 +10361,7 @@
     <t>JWRoosi4</t>
   </si>
   <si>
-    <t>6 ч. 10 мин. 1 сек.</t>
+    <t>6 ч. 10 мин. 01 сек.</t>
   </si>
   <si>
     <t>1526–1527</t>
@@ -10439,13 +10439,13 @@
     <t>Berkut1</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 58 сек.</t>
+    <t>4 ч. 04 мин. 58 сек.</t>
   </si>
   <si>
     <t>kosal</t>
   </si>
   <si>
-    <t>11 ч. 32 мин. 9 сек.</t>
+    <t>11 ч. 32 мин. 09 сек.</t>
   </si>
   <si>
     <t>1537–1538</t>
@@ -10454,7 +10454,7 @@
     <t>valera1956219</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 24 сек.</t>
+    <t>3 ч. 05 мин. 24 сек.</t>
   </si>
   <si>
     <t>Loser_</t>
@@ -10469,7 +10469,7 @@
     <t>205i</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 58 сек.</t>
+    <t>4 ч. 03 мин. 58 сек.</t>
   </si>
   <si>
     <t>Desin</t>
@@ -10499,7 +10499,7 @@
     <t>vd49</t>
   </si>
   <si>
-    <t>86 ч. 51 мин. 5 сек.</t>
+    <t>86 ч. 51 мин. 05 сек.</t>
   </si>
   <si>
     <t>1545–1547</t>
@@ -10508,7 +10508,7 @@
     <t>anho</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 51 сек.</t>
+    <t>6 ч. 06 мин. 51 сек.</t>
   </si>
   <si>
     <t>fuzeg</t>
@@ -10520,7 +10520,7 @@
     <t>persona48</t>
   </si>
   <si>
-    <t>19 ч. 4 мин. 27 сек.</t>
+    <t>19 ч. 04 мин. 27 сек.</t>
   </si>
   <si>
     <t>1548–1551</t>
@@ -10535,13 +10535,13 @@
     <t>arokoko</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 57 сек.</t>
+    <t>3 ч. 07 мин. 57 сек.</t>
   </si>
   <si>
     <t>fobos87</t>
   </si>
   <si>
-    <t>8 ч. 3 мин. 25 сек.</t>
+    <t>8 ч. 03 мин. 25 сек.</t>
   </si>
   <si>
     <t>тва</t>
@@ -10556,7 +10556,7 @@
     <t>iron-fan</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 27 сек.</t>
+    <t>3 ч. 05 мин. 27 сек.</t>
   </si>
   <si>
     <t>1553</t>
@@ -10580,7 +10580,7 @@
     <t>aseran</t>
   </si>
   <si>
-    <t>7 ч. 28 мин. 8 сек.</t>
+    <t>7 ч. 28 мин. 08 сек.</t>
   </si>
   <si>
     <t>1556–1557</t>
@@ -10595,7 +10595,7 @@
     <t>IgorGrin</t>
   </si>
   <si>
-    <t>9 ч. 32 мин. 3 сек.</t>
+    <t>9 ч. 32 мин. 03 сек.</t>
   </si>
   <si>
     <t>1558</t>
@@ -10634,7 +10634,7 @@
     <t>stasostrouhov</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 54 сек.</t>
+    <t>4 ч. 06 мин. 54 сек.</t>
   </si>
   <si>
     <t>volbt26</t>
@@ -10646,7 +10646,7 @@
     <t>LoremIspum</t>
   </si>
   <si>
-    <t>12 ч. 42 мин. 4 сек.</t>
+    <t>12 ч. 42 мин. 04 сек.</t>
   </si>
   <si>
     <t>1565</t>
@@ -10664,7 +10664,7 @@
     <t>vova555</t>
   </si>
   <si>
-    <t>17 ч. 5 мин. 7 сек.</t>
+    <t>17 ч. 05 мин. 07 сек.</t>
   </si>
   <si>
     <t>1567–1569</t>
@@ -10679,7 +10679,7 @@
     <t>zald</t>
   </si>
   <si>
-    <t>9 ч. 2 мин. 38 сек.</t>
+    <t>9 ч. 02 мин. 38 сек.</t>
   </si>
   <si>
     <t>lny77</t>
@@ -10703,7 +10703,7 @@
     <t>1977</t>
   </si>
   <si>
-    <t>3 ч. 38 мин. 9 сек.</t>
+    <t>3 ч. 38 мин. 09 сек.</t>
   </si>
   <si>
     <t>1572–1573</t>
@@ -10763,7 +10763,7 @@
     <t>zsb</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 25 сек.</t>
+    <t>4 ч. 02 мин. 25 сек.</t>
   </si>
   <si>
     <t>1579</t>
@@ -10772,7 +10772,7 @@
     <t>Flexx971</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 24 сек.</t>
+    <t>6 ч. 09 мин. 24 сек.</t>
   </si>
   <si>
     <t>1580</t>
@@ -10790,7 +10790,7 @@
     <t>vogoniu</t>
   </si>
   <si>
-    <t>6 ч. 14 мин. 0 сек.</t>
+    <t>6 ч. 14 мин. 00 сек.</t>
   </si>
   <si>
     <t>1582</t>
@@ -10799,7 +10799,7 @@
     <t>Ergond</t>
   </si>
   <si>
-    <t>7 ч. 3 мин. 20 сек.</t>
+    <t>7 ч. 03 мин. 20 сек.</t>
   </si>
   <si>
     <t>1583</t>
@@ -10826,7 +10826,7 @@
     <t>Антоха61</t>
   </si>
   <si>
-    <t>8 ч. 2 мин. 30 сек.</t>
+    <t>8 ч. 02 мин. 30 сек.</t>
   </si>
   <si>
     <t>1586</t>
@@ -10835,7 +10835,7 @@
     <t>KlavoKlaxon</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 32 сек.</t>
+    <t>5 ч. 07 мин. 32 сек.</t>
   </si>
   <si>
     <t>1587</t>
@@ -10853,7 +10853,7 @@
     <t>andrux2020</t>
   </si>
   <si>
-    <t>12 ч. 6 мин. 39 сек.</t>
+    <t>12 ч. 06 мин. 39 сек.</t>
   </si>
   <si>
     <t>1589</t>
@@ -10862,7 +10862,7 @@
     <t>timofeytrsv27</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 16 сек.</t>
+    <t>5 ч. 01 мин. 16 сек.</t>
   </si>
   <si>
     <t>1590–1591</t>
@@ -10895,7 +10895,7 @@
     <t>Vgerasimov777</t>
   </si>
   <si>
-    <t>5 ч. 39 мин. 0 сек.</t>
+    <t>5 ч. 39 мин. 00 сек.</t>
   </si>
   <si>
     <t>1594</t>
@@ -10922,7 +10922,7 @@
     <t>Fantorn</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 7 сек.</t>
+    <t>5 ч. 08 мин. 07 сек.</t>
   </si>
   <si>
     <t>1597</t>
@@ -10931,7 +10931,7 @@
     <t>Aksi25</t>
   </si>
   <si>
-    <t>11 ч. 1 мин. 52 сек.</t>
+    <t>11 ч. 01 мин. 52 сек.</t>
   </si>
   <si>
     <t>1598–1599</t>
@@ -10940,7 +10940,7 @@
     <t>WANWAN</t>
   </si>
   <si>
-    <t>6 ч. 14 мин. 2 сек.</t>
+    <t>6 ч. 14 мин. 02 сек.</t>
   </si>
   <si>
     <t>laplex</t>
